--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="412">
   <si>
     <t>Pāli1</t>
   </si>
@@ -274,9 +274,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -286,15 +283,9 @@
     <t>cora</t>
   </si>
   <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
     <t>attha 5</t>
   </si>
   <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -502,12 +493,6 @@
     <t>kassaka</t>
   </si>
   <si>
-    <t>ahosiṃ</t>
-  </si>
-  <si>
-    <t>ahu 1</t>
-  </si>
-  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
@@ -880,9 +865,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -892,15 +874,9 @@
     <t>thief</t>
   </si>
   <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -1108,120 +1084,117 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>takes place; arises; appears</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>dispels; drives out; rejects; pushes away</t>
+  </si>
+  <si>
+    <t>cuts; cuts off; severs</t>
+  </si>
+  <si>
+    <t>they are; there are</t>
+  </si>
+  <si>
+    <t>there is</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
+    <t>addressed; said (to)</t>
+  </si>
+  <si>
+    <t>may you all be! you all must be!</t>
+  </si>
+  <si>
+    <t>may they be! they must be!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied; assented; agreed</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>arose; appeared</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; was friendly (with)</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to)</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>went; travelled</t>
+  </si>
+  <si>
+    <t>monk; sage; hermit; holy man</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>rice paddy</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+  </si>
+  <si>
+    <t>sickness; disease; lit. upset; overturn</t>
+  </si>
+  <si>
+    <t>do! make! may you preform; you must do</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; explained</t>
+  </si>
+  <si>
     <t>I was</t>
   </si>
   <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>takes place; arises; appears</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
-    <t>cuts; cuts off; severs</t>
-  </si>
-  <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
-  </si>
-  <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied; assented; agreed</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to)</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice paddy</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
-  </si>
-  <si>
-    <t>sickness; disease; lit. upset; overturn</t>
-  </si>
-  <si>
-    <t>do! make! may you preform; you must do</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
-    <t>answered; explained</t>
-  </si>
-  <si>
     <t>one was; it was</t>
   </si>
   <si>
@@ -1241,9 +1214,6 @@
   </si>
   <si>
     <t>āti-pr</t>
-  </si>
-  <si>
-    <t>ahosi-aor</t>
   </si>
   <si>
     <t>atthi-pr</t>
@@ -1637,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1665,16 +1635,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1682,16 +1652,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1699,16 +1669,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1716,16 +1686,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1733,16 +1703,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1750,16 +1720,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1767,16 +1737,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1784,16 +1754,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E9" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1801,16 +1771,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1818,16 +1788,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1835,16 +1805,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1852,16 +1822,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1869,16 +1839,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1886,16 +1856,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E15" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1903,16 +1873,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1920,16 +1890,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1937,16 +1907,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E18" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1954,16 +1924,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1971,16 +1941,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1988,16 +1958,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E21" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2005,16 +1975,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2022,16 +1992,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E23" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2039,16 +2009,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E24" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2056,16 +2026,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2073,16 +2043,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2090,16 +2060,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E27" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2107,16 +2077,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2124,16 +2094,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E29" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2141,16 +2111,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E30" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2158,16 +2128,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2175,16 +2145,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E32" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2192,16 +2162,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E33" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2209,16 +2179,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E34" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2226,16 +2196,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E35" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2243,16 +2213,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E36" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2260,16 +2230,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E37" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2277,16 +2247,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E38" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2294,16 +2264,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E39" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2311,16 +2281,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E40" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2328,16 +2298,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E41" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2345,16 +2315,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E42" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2362,16 +2332,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E43" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2379,16 +2349,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D44" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E44" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2396,16 +2366,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D45" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E45" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2413,16 +2383,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E46" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2430,16 +2400,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E47" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2447,16 +2417,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E48" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2464,16 +2434,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D49" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E49" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2481,16 +2451,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D50" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E50" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2498,16 +2468,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E51" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2515,16 +2485,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2532,16 +2502,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E53" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2549,16 +2519,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D54" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E54" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2566,16 +2536,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E55" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2583,16 +2553,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E56" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2600,16 +2570,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E57" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2617,16 +2587,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E58" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2634,16 +2604,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E59" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2651,16 +2621,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E60" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2668,16 +2638,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D61" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2685,16 +2655,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E62" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2702,16 +2672,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2719,16 +2689,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E64" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2736,16 +2706,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2753,16 +2723,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D66" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E66" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2770,16 +2740,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2787,16 +2757,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E68" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2804,16 +2774,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E69" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2821,16 +2791,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E70" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2838,16 +2808,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E71" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2855,16 +2825,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E72" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2872,16 +2842,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E73" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2889,16 +2859,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E74" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2906,16 +2876,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E75" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2923,16 +2893,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E76" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2940,16 +2910,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E77" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2957,16 +2927,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E78" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2974,16 +2944,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E79" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2991,16 +2961,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E80" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3008,16 +2978,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E81" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3025,16 +2995,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E82" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3042,16 +3012,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3059,16 +3029,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E84" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3076,16 +3046,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D85" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E85" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3093,16 +3063,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D86" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E86" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3110,16 +3080,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E87" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3127,16 +3097,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E88" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3144,16 +3114,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E89" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3161,16 +3131,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E90" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3178,16 +3148,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E91" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3195,16 +3165,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E92" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3212,16 +3182,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E93" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3229,16 +3199,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E94" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3246,16 +3216,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E95" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3263,16 +3233,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3280,16 +3250,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E97" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3297,16 +3267,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E98" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3314,16 +3284,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E99" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3331,16 +3301,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E100" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3348,16 +3318,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3365,16 +3335,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C102" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E102" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3382,16 +3352,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E103" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3399,16 +3369,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E104" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3416,16 +3386,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E105" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3433,16 +3403,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E106" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3450,16 +3420,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C107" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E107" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3467,16 +3437,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D108" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E108" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3484,16 +3454,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E109" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3501,16 +3471,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E110" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3518,16 +3488,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E111" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3535,16 +3505,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E112" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3552,16 +3522,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D113" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E113" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3569,16 +3539,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E114" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3586,16 +3556,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E115" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3603,16 +3573,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E116" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3620,16 +3590,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C117" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E117" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3637,16 +3607,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E118" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3654,16 +3624,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D119" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3671,16 +3641,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D120" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E120" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3688,16 +3658,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D121" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E121" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3705,16 +3675,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C122" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D122" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E122" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3722,16 +3692,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C123" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E123" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3739,16 +3709,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D124" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E124" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3756,16 +3726,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C125" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D125" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E125" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3773,16 +3743,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C126" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D126" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E126" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3790,16 +3760,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D127" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E127" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3807,16 +3777,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D128" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E128" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3824,16 +3794,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D129" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E129" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3841,16 +3811,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D130" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E130" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3858,16 +3828,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D131" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E131" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3875,16 +3845,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E132" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3892,16 +3862,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3909,16 +3879,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C134" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D134" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3926,16 +3896,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D135" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E135" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3943,16 +3913,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D136" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E136" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3960,16 +3930,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E137" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3977,16 +3947,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D138" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E138" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3994,16 +3964,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D139" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E139" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4011,16 +3981,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C140" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D140" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E140" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4028,16 +3998,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D141" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E141" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4045,16 +4015,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C142" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D142" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E142" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4062,16 +4032,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D143" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E143" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4079,16 +4049,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D144" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E144" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4096,16 +4066,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D145" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E145" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4113,16 +4083,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D146" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E146" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4130,16 +4100,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E147" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4147,16 +4117,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E148" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4164,16 +4134,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C149" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D149" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E149" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4181,16 +4151,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C150" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D150" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E150" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4198,16 +4168,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C151" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E151" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4215,16 +4185,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C152" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D152" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E152" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4232,16 +4202,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D153" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E153" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4249,16 +4219,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C154" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D154" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E154" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4266,16 +4236,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D155" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E155" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4283,16 +4253,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C156" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D156" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E156" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4300,16 +4270,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C157" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D157" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E157" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4317,16 +4287,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C158" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E158" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4334,16 +4304,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C159" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D159" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E159" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4351,16 +4321,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C160" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D160" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E160" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4368,16 +4338,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C161" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D161" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E161" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4385,16 +4355,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C162" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D162" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E162" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4402,16 +4372,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C163" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E163" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4419,16 +4389,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C164" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D164" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E164" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4436,16 +4406,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C165" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D165" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E165" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4453,16 +4423,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C166" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D166" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E166" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4470,16 +4440,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C167" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D167" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E167" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4487,16 +4457,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C168" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D168" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E168" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4504,16 +4474,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D169" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E169" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4521,16 +4491,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D170" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E170" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4538,16 +4508,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C171" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D171" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E171" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4555,16 +4525,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C172" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D172" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E172" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4572,16 +4542,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C173" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D173" t="s">
+        <v>403</v>
+      </c>
+      <c r="E173" t="s">
         <v>411</v>
-      </c>
-      <c r="E173" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4589,16 +4559,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C174" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D174" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E174" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4606,16 +4576,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D175" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E175" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4623,16 +4593,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D176" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E176" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4640,16 +4610,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C177" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D177" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E177" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4657,16 +4627,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D178" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E178" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4674,16 +4644,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D179" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E179" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4691,16 +4661,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C180" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D180" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E180" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4708,16 +4678,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D181" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4725,16 +4695,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D182" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E182" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4742,16 +4712,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D183" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E183" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4759,16 +4729,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E184" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4776,16 +4746,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D185" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E185" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4793,16 +4763,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D186" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E186" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4810,16 +4780,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D187" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E187" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4827,16 +4797,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C188" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D188" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E188" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4844,16 +4814,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D189" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E189" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4861,16 +4831,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D190" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E190" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4878,16 +4848,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D191" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E191" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4895,16 +4865,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D192" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E192" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4912,16 +4882,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D193" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E193" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4929,101 +4899,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D194" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E194" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" t="s">
-        <v>206</v>
-      </c>
-      <c r="C195" t="s">
-        <v>399</v>
-      </c>
-      <c r="D195" t="s">
-        <v>417</v>
-      </c>
-      <c r="E195" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196" t="s">
-        <v>206</v>
-      </c>
-      <c r="C196" t="s">
-        <v>400</v>
-      </c>
-      <c r="D196" t="s">
-        <v>417</v>
-      </c>
-      <c r="E196" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" t="s">
-        <v>206</v>
-      </c>
-      <c r="C197" t="s">
-        <v>401</v>
-      </c>
-      <c r="D197" t="s">
-        <v>417</v>
-      </c>
-      <c r="E197" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>201</v>
-      </c>
-      <c r="B198" t="s">
-        <v>206</v>
-      </c>
-      <c r="C198" t="s">
-        <v>364</v>
-      </c>
-      <c r="D198" t="s">
-        <v>418</v>
-      </c>
-      <c r="E198" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" t="s">
-        <v>206</v>
-      </c>
-      <c r="C199" t="s">
-        <v>402</v>
-      </c>
-      <c r="D199" t="s">
-        <v>418</v>
-      </c>
-      <c r="E199" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="442">
   <si>
     <t>Pāli1</t>
   </si>
@@ -46,12 +46,36 @@
     <t>sāvaka</t>
   </si>
   <si>
+    <t>adhigama</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
     <t>loka 2</t>
   </si>
   <si>
     <t>sagga 2</t>
   </si>
   <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 2</t>
+  </si>
+  <si>
+    <t>nakha</t>
+  </si>
+  <si>
+    <t>loma</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
     <t>vinaya 1</t>
   </si>
   <si>
@@ -73,6 +97,9 @@
     <t>puggala</t>
   </si>
   <si>
+    <t>uposatha</t>
+  </si>
+  <si>
     <t>bhava 2</t>
   </si>
   <si>
@@ -133,6 +160,9 @@
     <t>ānanda 2</t>
   </si>
   <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
     <t>niraya</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>paribbājaka</t>
   </si>
   <si>
+    <t>rukkha</t>
+  </si>
+  <si>
     <t>buddha 1</t>
   </si>
   <si>
@@ -274,6 +307,9 @@
     <t>bāla 4</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -283,9 +319,15 @@
     <t>cora</t>
   </si>
   <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
     <t>attha 5</t>
   </si>
   <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
     <t>patta 1</t>
   </si>
   <si>
@@ -319,9 +361,6 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 3</t>
-  </si>
-  <si>
     <t>dhamma 9</t>
   </si>
   <si>
@@ -397,6 +436,9 @@
     <t>vadati 1</t>
   </si>
   <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>rakkhati 1</t>
   </si>
   <si>
@@ -592,6 +634,9 @@
     <t>byādhi</t>
   </si>
   <si>
+    <t>karoti</t>
+  </si>
+  <si>
     <t>karohi</t>
   </si>
   <si>
@@ -637,12 +682,36 @@
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>arrival (at); attainment (of); reaching (of)</t>
+  </si>
+  <si>
+    <t>method; system; (right) path</t>
+  </si>
+  <si>
+    <t>surpassing; overcoming; going beyond</t>
+  </si>
+  <si>
     <t>world; plane of existence</t>
   </si>
   <si>
     <t>heaven; state of happiness</t>
   </si>
   <si>
+    <t>distinction; attainment</t>
+  </si>
+  <si>
+    <t>tooth; tusk; fang</t>
+  </si>
+  <si>
+    <t>a nail; a claw</t>
+  </si>
+  <si>
+    <t>the hair on the body; pelt</t>
+  </si>
+  <si>
+    <t>hair of the head</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out (from unwholesome)</t>
   </si>
   <si>
@@ -664,6 +733,9 @@
     <t>an individual; a person</t>
   </si>
   <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
     <t>being; existence; becoming</t>
   </si>
   <si>
@@ -724,6 +796,9 @@
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>hell; lit. no good fortune</t>
   </si>
   <si>
@@ -844,6 +919,9 @@
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
+    <t>tree</t>
+  </si>
+  <si>
     <t>the Buddha; Awakened One</t>
   </si>
   <si>
@@ -865,6 +943,9 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -874,9 +955,15 @@
     <t>thief</t>
   </si>
   <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
     <t>need (for); want (for)</t>
   </si>
   <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
     <t>bowl; alms bowl</t>
   </si>
   <si>
@@ -910,9 +997,6 @@
     <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
   </si>
   <si>
-    <t>mental phenomena; mind object</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -988,6 +1072,9 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
@@ -1178,6 +1265,9 @@
   </si>
   <si>
     <t>sickness; disease; lit. upset; overturn</t>
+  </si>
+  <si>
+    <t>does; makes; acts; performs; builds</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
@@ -1607,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,16 +1725,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1652,16 +1742,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1669,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1686,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1703,16 +1793,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E6" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1720,16 +1810,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1737,16 +1827,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E8" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1754,16 +1844,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1771,16 +1861,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1788,16 +1878,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E11" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1805,16 +1895,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1822,16 +1912,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E13" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1839,16 +1929,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E14" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1856,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1873,16 +1963,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1890,16 +1980,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1907,16 +1997,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1924,16 +2014,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1941,16 +2031,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E20" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1958,16 +2048,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1975,16 +2065,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1992,16 +2082,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E23" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2009,16 +2099,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2026,16 +2116,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E25" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2043,16 +2133,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E26" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2060,16 +2150,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2077,16 +2167,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E28" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2094,16 +2184,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E29" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2111,16 +2201,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2128,16 +2218,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E31" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2145,16 +2235,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E32" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2162,16 +2252,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2179,16 +2269,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E34" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2196,16 +2286,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E35" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2213,16 +2303,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E36" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2230,16 +2320,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2247,16 +2337,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E38" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2264,16 +2354,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E39" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2281,16 +2371,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E40" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2298,16 +2388,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D41" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E41" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2315,16 +2405,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E42" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2332,16 +2422,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E43" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2349,16 +2439,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E44" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2366,16 +2456,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E45" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2383,16 +2473,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E46" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2400,16 +2490,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E47" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2417,16 +2507,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E48" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2434,16 +2524,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E49" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2451,16 +2541,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E50" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2468,16 +2558,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E51" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2485,16 +2575,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E52" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2502,16 +2592,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E53" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2519,16 +2609,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E54" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2536,16 +2626,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E55" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2553,16 +2643,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E56" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2570,16 +2660,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E57" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2587,16 +2677,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E58" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2604,16 +2694,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2621,16 +2711,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E60" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2638,16 +2728,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E61" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2655,16 +2745,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E62" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2672,16 +2762,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E63" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2689,16 +2779,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E64" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2706,16 +2796,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E65" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2723,16 +2813,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2740,16 +2830,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E67" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2757,16 +2847,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E68" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2774,16 +2864,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E69" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2791,16 +2881,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E70" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2808,16 +2898,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E71" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2825,16 +2915,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E72" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2842,16 +2932,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E73" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2859,16 +2949,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E74" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2876,16 +2966,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E75" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2893,16 +2983,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E76" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2910,16 +3000,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E77" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2927,16 +3017,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E78" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2944,16 +3034,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E79" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2961,16 +3051,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E80" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2978,16 +3068,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2995,16 +3085,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3012,16 +3102,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E83" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3029,16 +3119,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3046,16 +3136,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E85" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3063,16 +3153,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E86" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3080,16 +3170,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E87" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3097,16 +3187,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E88" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3114,16 +3204,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E89" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3131,16 +3221,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E90" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3148,16 +3238,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E91" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3165,16 +3255,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E92" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3182,16 +3272,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3199,16 +3289,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E94" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3216,16 +3306,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E95" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3233,16 +3323,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E96" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3250,16 +3340,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D97" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E97" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3267,16 +3357,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D98" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E98" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3284,16 +3374,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D99" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E99" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3301,16 +3391,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D100" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E100" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3318,16 +3408,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3335,16 +3425,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D102" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E102" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3352,16 +3442,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E103" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3369,16 +3459,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E104" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3386,16 +3476,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E105" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3403,16 +3493,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E106" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3420,16 +3510,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E107" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3437,16 +3527,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C108" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E108" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3454,16 +3544,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="D109" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E109" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3471,16 +3561,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D110" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="E110" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3488,16 +3578,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="E111" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3505,16 +3595,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E112" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3522,16 +3612,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D113" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E113" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3539,16 +3629,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D114" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="E114" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3556,16 +3646,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D115" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E115" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3573,16 +3663,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="D116" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E116" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3590,16 +3680,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E117" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3607,16 +3697,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3624,16 +3714,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E119" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3641,16 +3731,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3658,16 +3748,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D121" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3675,16 +3765,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E122" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3692,16 +3782,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="E123" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3709,16 +3799,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D124" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="E124" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3726,16 +3816,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C125" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E125" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3743,16 +3833,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C126" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E126" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3760,16 +3850,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="D127" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E127" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3777,16 +3867,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E128" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3794,16 +3884,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E129" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3811,16 +3901,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D130" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E130" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3828,16 +3918,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E131" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3845,16 +3935,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D132" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E132" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3862,16 +3952,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E133" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3879,16 +3969,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D134" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E134" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3896,16 +3986,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D135" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E135" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3913,16 +4003,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D136" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="E136" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3930,16 +4020,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D137" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="E137" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3947,16 +4037,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="D138" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="E138" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3964,16 +4054,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="E139" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3981,16 +4071,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="E140" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3998,16 +4088,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E141" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4015,16 +4105,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E142" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4032,16 +4122,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D143" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E143" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4049,16 +4139,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="D144" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4066,16 +4156,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E145" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4083,16 +4173,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D146" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E146" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4100,16 +4190,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D147" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E147" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4117,16 +4207,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D148" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E148" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4134,16 +4224,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="E149" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4151,16 +4241,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="E150" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4168,16 +4258,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D151" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E151" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4185,16 +4275,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E152" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4202,16 +4292,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="D153" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="E153" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4219,16 +4309,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D154" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4236,16 +4326,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D155" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="E155" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4253,16 +4343,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D156" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E156" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4270,16 +4360,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="D157" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E157" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4287,16 +4377,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="D158" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E158" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4304,16 +4394,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="D159" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E159" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4321,16 +4411,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D160" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E160" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4338,16 +4428,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D161" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E161" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4355,16 +4445,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="D162" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E162" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4372,16 +4462,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C163" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D163" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E163" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4389,16 +4479,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C164" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="D164" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E164" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4406,16 +4496,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="D165" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E165" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4423,16 +4513,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="D166" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E166" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4440,16 +4530,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="D167" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="E167" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4457,16 +4547,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D168" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="E168" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4474,16 +4564,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C169" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D169" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="E169" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4491,16 +4581,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D170" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="E170" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4508,16 +4598,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D171" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="E171" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4525,16 +4615,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D172" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="E172" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4542,16 +4632,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D173" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="E173" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4559,16 +4649,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="D174" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="E174" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4576,16 +4666,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="D175" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="E175" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4593,16 +4683,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="D176" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="E176" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4610,16 +4700,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D177" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="E177" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4627,16 +4717,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="D178" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="E178" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4644,16 +4734,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D179" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="E179" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4661,16 +4751,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D180" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="E180" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4678,16 +4768,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E181" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4695,16 +4785,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C182" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D182" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="E182" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4712,16 +4802,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D183" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="E183" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4729,16 +4819,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D184" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="E184" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4746,16 +4836,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C185" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D185" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="E185" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4763,16 +4853,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="D186" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="E186" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4780,16 +4870,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="D187" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="E187" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4797,16 +4887,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C188" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="E188" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4814,16 +4904,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D189" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="E189" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4831,16 +4921,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="D190" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E190" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4848,16 +4938,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C191" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D191" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E191" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4865,16 +4955,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D192" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="E192" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4882,16 +4972,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C193" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D193" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="E193" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4899,16 +4989,271 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
+        <v>216</v>
+      </c>
+      <c r="C194" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" t="s">
+        <v>434</v>
+      </c>
+      <c r="E194" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C195" t="s">
+        <v>409</v>
+      </c>
+      <c r="D195" t="s">
+        <v>435</v>
+      </c>
+      <c r="E195" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>213</v>
+      </c>
+      <c r="C196" t="s">
+        <v>410</v>
+      </c>
+      <c r="D196" t="s">
+        <v>435</v>
+      </c>
+      <c r="E196" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" t="s">
+        <v>411</v>
+      </c>
+      <c r="D197" t="s">
+        <v>435</v>
+      </c>
+      <c r="E197" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
         <v>201</v>
       </c>
-      <c r="C194" t="s">
-        <v>393</v>
-      </c>
-      <c r="D194" t="s">
-        <v>408</v>
-      </c>
-      <c r="E194" t="s">
-        <v>411</v>
+      <c r="B198" t="s">
+        <v>213</v>
+      </c>
+      <c r="C198" t="s">
+        <v>412</v>
+      </c>
+      <c r="D198" t="s">
+        <v>435</v>
+      </c>
+      <c r="E198" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>213</v>
+      </c>
+      <c r="C199" t="s">
+        <v>413</v>
+      </c>
+      <c r="D199" t="s">
+        <v>435</v>
+      </c>
+      <c r="E199" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D200" t="s">
+        <v>435</v>
+      </c>
+      <c r="E200" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" t="s">
+        <v>435</v>
+      </c>
+      <c r="E201" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>213</v>
+      </c>
+      <c r="C202" t="s">
+        <v>416</v>
+      </c>
+      <c r="D202" t="s">
+        <v>435</v>
+      </c>
+      <c r="E202" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>214</v>
+      </c>
+      <c r="C203" t="s">
+        <v>417</v>
+      </c>
+      <c r="D203" t="s">
+        <v>436</v>
+      </c>
+      <c r="E203" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+      <c r="C204" t="s">
+        <v>418</v>
+      </c>
+      <c r="D204" t="s">
+        <v>436</v>
+      </c>
+      <c r="E204" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" t="s">
+        <v>419</v>
+      </c>
+      <c r="D205" t="s">
+        <v>437</v>
+      </c>
+      <c r="E205" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+      <c r="C206" t="s">
+        <v>420</v>
+      </c>
+      <c r="D206" t="s">
+        <v>437</v>
+      </c>
+      <c r="E206" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207" t="s">
+        <v>421</v>
+      </c>
+      <c r="D207" t="s">
+        <v>437</v>
+      </c>
+      <c r="E207" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>216</v>
+      </c>
+      <c r="C208" t="s">
+        <v>422</v>
+      </c>
+      <c r="D208" t="s">
+        <v>438</v>
+      </c>
+      <c r="E208" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" t="s">
+        <v>423</v>
+      </c>
+      <c r="D209" t="s">
+        <v>438</v>
+      </c>
+      <c r="E209" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -55,12 +55,6 @@
     <t>samatikkama</t>
   </si>
   <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>sagga 2</t>
-  </si>
-  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>bāla 4</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
     <t>kāya 1</t>
   </si>
   <si>
@@ -445,6 +436,9 @@
     <t>bhāsati 1</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>tasati 1</t>
   </si>
   <si>
@@ -481,6 +475,9 @@
     <t>ceteti 2</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
@@ -691,12 +691,6 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>heaven; state of happiness</t>
-  </si>
-  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -943,9 +937,6 @@
     <t>fool; immature person; ignorant person</t>
   </si>
   <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
     <t>body; physical body; physical process; lit. collection</t>
   </si>
   <si>
@@ -1012,7 +1003,7 @@
     <t>attention; mental application; lit. making in mind</t>
   </si>
   <si>
-    <t>(vinaya) offence requiring involvement of the Community from start to finish</t>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
@@ -1081,6 +1072,9 @@
     <t>says; speaks</t>
   </si>
   <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>is afraid (of); fears</t>
   </si>
   <si>
@@ -1117,6 +1111,9 @@
     <t>intends; will (to); lit. thinks</t>
   </si>
   <si>
+    <t>undergoes; feels; experiences</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers</t>
   </si>
   <si>
@@ -1130,6 +1127,9 @@
   </si>
   <si>
     <t>he must hear! may he listen!</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
   </si>
   <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
@@ -3737,7 +3737,7 @@
         <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E120" t="s">
         <v>439</v>
@@ -3754,7 +3754,7 @@
         <v>336</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E121" t="s">
         <v>439</v>
@@ -3774,7 +3774,7 @@
         <v>424</v>
       </c>
       <c r="E122" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3788,10 +3788,10 @@
         <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3805,10 +3805,10 @@
         <v>339</v>
       </c>
       <c r="D124" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E124" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3816,13 +3816,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
         <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E125" t="s">
         <v>440</v>
@@ -3833,13 +3833,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
         <v>341</v>
       </c>
       <c r="D126" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E126" t="s">
         <v>440</v>
@@ -3850,13 +3850,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
         <v>342</v>
       </c>
       <c r="D127" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E127" t="s">
         <v>440</v>
@@ -3901,7 +3901,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
         <v>345</v>
@@ -3952,7 +3952,7 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
         <v>348</v>
@@ -4230,7 +4230,7 @@
         <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E149" t="s">
         <v>440</v>
@@ -4247,7 +4247,7 @@
         <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E150" t="s">
         <v>440</v>
@@ -4292,13 +4292,13 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C153" t="s">
         <v>368</v>
       </c>
       <c r="D153" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E153" t="s">
         <v>440</v>
@@ -4309,13 +4309,13 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
         <v>369</v>
       </c>
       <c r="D154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E154" t="s">
         <v>440</v>
@@ -4326,7 +4326,7 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
         <v>370</v>
@@ -4343,7 +4343,7 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
         <v>371</v>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="450">
   <si>
     <t>Pāli1</t>
   </si>
@@ -478,6 +478,9 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>paṭiggaheti</t>
+  </si>
+  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -538,6 +541,9 @@
     <t>uppajjati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -547,6 +553,9 @@
     <t>nibbindati</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>bhuñjati 1</t>
   </si>
   <si>
@@ -640,6 +649,9 @@
     <t>karohi</t>
   </si>
   <si>
+    <t>abhisaṅkharoti</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
@@ -742,7 +754,7 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>black gram; Vigna mungo</t>
+    <t>bean</t>
   </si>
   <si>
     <t>child; son</t>
@@ -1114,6 +1126,9 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers</t>
   </si>
   <si>
@@ -1129,9 +1144,6 @@
     <t>he must hear! may he listen!</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
@@ -1174,6 +1186,9 @@
     <t>takes place; arises; appears</t>
   </si>
   <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -1183,6 +1198,9 @@
     <t>is disenchanted; is disinterested; is disillusioned</t>
   </si>
   <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
     <t>eats; consumes</t>
   </si>
   <si>
@@ -1261,7 +1279,7 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability; stillness; composure; collectedness of mind; lit. putting together</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
   </si>
   <si>
     <t>sickness; disease; lit. upset; overturn</t>
@@ -1273,6 +1291,9 @@
     <t>do! make! may you preform; you must do</t>
   </si>
   <si>
+    <t>does; performs; creates; constructs</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
@@ -1325,6 +1346,9 @@
   </si>
   <si>
     <t>karoti-pr</t>
+  </si>
+  <si>
+    <t>oti-pr</t>
   </si>
   <si>
     <t>āsi-aor</t>
@@ -1697,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1742,16 +1766,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1759,16 +1783,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1776,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1793,16 +1817,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1810,16 +1834,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1827,16 +1851,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1844,16 +1868,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1861,16 +1885,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E10" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1878,16 +1902,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1895,16 +1919,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D12" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1912,16 +1936,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E13" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1929,16 +1953,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1946,16 +1970,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E15" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1963,16 +1987,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E16" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1980,16 +2004,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1997,16 +2021,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2014,16 +2038,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E19" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2031,16 +2055,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E20" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2048,16 +2072,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2065,16 +2089,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2082,16 +2106,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D23" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2099,16 +2123,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E24" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2116,16 +2140,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2133,16 +2157,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E26" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2150,16 +2174,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E27" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2167,16 +2191,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2184,16 +2208,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E29" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2201,16 +2225,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2218,16 +2242,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D31" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E31" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2235,16 +2259,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E32" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2252,16 +2276,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E33" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2269,16 +2293,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E34" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2286,16 +2310,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E35" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2303,16 +2327,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D36" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E36" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2320,16 +2344,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2337,16 +2361,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D38" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E38" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2354,16 +2378,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D39" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E39" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2371,16 +2395,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E40" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2388,16 +2412,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E41" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2405,16 +2429,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D42" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2422,16 +2446,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E43" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2439,16 +2463,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D44" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E44" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2456,16 +2480,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D45" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E45" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2473,16 +2497,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D46" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E46" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2490,16 +2514,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D47" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E47" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2507,16 +2531,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E48" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2524,16 +2548,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E49" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2541,16 +2565,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D50" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E50" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2558,16 +2582,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D51" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E51" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2575,16 +2599,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D52" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2592,16 +2616,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2609,16 +2633,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D54" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E54" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2626,16 +2650,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2643,16 +2667,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D56" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E56" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2660,16 +2684,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D57" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2677,16 +2701,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D58" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2694,16 +2718,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E59" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2711,16 +2735,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D60" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E60" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2728,16 +2752,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2745,16 +2769,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E62" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2762,16 +2786,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D63" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2779,16 +2803,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2796,16 +2820,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E65" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2813,16 +2837,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D66" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2830,16 +2854,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E67" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2847,16 +2871,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E68" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2864,16 +2888,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E69" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2881,16 +2905,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E70" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2898,16 +2922,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D71" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E71" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2915,16 +2939,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E72" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2932,16 +2956,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D73" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E73" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2949,16 +2973,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E74" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2966,16 +2990,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2983,16 +3007,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E76" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3000,16 +3024,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D77" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E77" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3017,16 +3041,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D78" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E78" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3034,16 +3058,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E79" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3051,16 +3075,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D80" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E80" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3068,16 +3092,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D81" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E81" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3085,16 +3109,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D82" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E82" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3102,16 +3126,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D83" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E83" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3119,16 +3143,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E84" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3136,16 +3160,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E85" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3153,16 +3177,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E86" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3170,16 +3194,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E87" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3187,16 +3211,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D88" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E88" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3204,16 +3228,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E89" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3221,16 +3245,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E90" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3238,16 +3262,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D91" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3255,16 +3279,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D92" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E92" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3272,16 +3296,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D93" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E93" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3289,16 +3313,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E94" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3306,16 +3330,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3323,16 +3347,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D96" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E96" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3340,16 +3364,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E97" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3357,16 +3381,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E98" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3374,16 +3398,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E99" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3391,16 +3415,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E100" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3408,16 +3432,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E101" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3425,16 +3449,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D102" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E102" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3442,16 +3466,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D103" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E103" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3459,16 +3483,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D104" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E104" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3476,16 +3500,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D105" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E105" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3493,16 +3517,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D106" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3510,16 +3534,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D107" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E107" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3527,16 +3551,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D108" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E108" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3544,16 +3568,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D109" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E109" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3561,16 +3585,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E110" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3578,16 +3602,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E111" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3595,16 +3619,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E112" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3612,16 +3636,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C113" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D113" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E113" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3629,16 +3653,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D114" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3646,16 +3670,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3663,16 +3687,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3680,16 +3704,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C117" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3697,16 +3721,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E118" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3714,16 +3738,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E119" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3731,16 +3755,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E120" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3748,16 +3772,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3765,16 +3789,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D122" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E122" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3782,16 +3806,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C123" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D123" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3799,16 +3823,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C124" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D124" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E124" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3816,16 +3840,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C125" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D125" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E125" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3833,16 +3857,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D126" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E126" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3850,16 +3874,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D127" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3867,16 +3891,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D128" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E128" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3884,16 +3908,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D129" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E129" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3901,16 +3925,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C130" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E130" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3918,16 +3942,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D131" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E131" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3935,16 +3959,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D132" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3952,16 +3976,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C133" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E133" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3969,16 +3993,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C134" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D134" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E134" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3986,16 +4010,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C135" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D135" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E135" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4003,16 +4027,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E136" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4020,16 +4044,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D137" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E137" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4037,16 +4061,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E138" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4054,16 +4078,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E139" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4071,16 +4095,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E140" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4088,16 +4112,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E141" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4105,16 +4129,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D142" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E142" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4122,16 +4146,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D143" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E143" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4139,16 +4163,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D144" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E144" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4156,16 +4180,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D145" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E145" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4173,16 +4197,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D146" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E146" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4190,16 +4214,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D147" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E147" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4207,16 +4231,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D148" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E148" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4224,16 +4248,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D149" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E149" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4241,16 +4265,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C150" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D150" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E150" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4258,16 +4282,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D151" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E151" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4275,16 +4299,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D152" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E152" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4292,16 +4316,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D153" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E153" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4309,16 +4333,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C154" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D154" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E154" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4326,16 +4350,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D155" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E155" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4343,16 +4367,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D156" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E156" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4360,16 +4384,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D157" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E157" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4377,16 +4401,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C158" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D158" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E158" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4394,16 +4418,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D159" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E159" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4411,16 +4435,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C160" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D160" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E160" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4428,16 +4452,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C161" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D161" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E161" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4445,16 +4469,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C162" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D162" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="E162" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4462,16 +4486,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D163" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E163" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4479,16 +4503,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C164" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D164" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E164" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4496,16 +4520,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C165" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D165" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E165" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4513,16 +4537,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C166" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D166" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4530,16 +4554,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C167" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D167" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E167" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4547,16 +4571,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C168" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E168" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4564,16 +4588,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C169" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D169" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4581,16 +4605,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C170" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D170" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E170" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4598,16 +4622,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D171" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E171" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4615,16 +4639,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C172" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D172" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E172" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4632,16 +4656,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D173" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E173" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4649,16 +4673,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C174" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D174" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E174" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4666,16 +4690,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C175" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D175" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4683,16 +4707,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C176" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D176" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4700,16 +4724,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C177" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D177" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E177" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4717,16 +4741,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C178" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D178" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E178" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4734,16 +4758,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C179" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D179" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E179" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4751,16 +4775,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C180" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D180" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4768,16 +4792,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C181" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D181" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E181" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4785,16 +4809,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C182" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D182" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E182" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4802,16 +4826,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C183" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D183" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E183" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4819,16 +4843,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C184" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D184" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E184" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4836,16 +4860,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C185" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D185" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4853,16 +4877,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
         <v>400</v>
       </c>
       <c r="D186" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E186" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4870,16 +4894,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D187" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E187" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4887,16 +4911,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D188" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E188" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4904,16 +4928,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D189" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E189" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4921,16 +4945,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C190" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D190" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E190" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4938,16 +4962,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C191" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D191" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E191" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4955,16 +4979,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C192" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D192" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E192" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4972,16 +4996,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C193" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D193" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E193" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4989,16 +5013,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D194" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E194" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5006,16 +5030,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C195" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D195" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E195" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5023,16 +5047,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C196" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D196" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E196" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5040,16 +5064,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C197" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D197" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E197" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5057,16 +5081,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C198" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D198" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E198" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5074,16 +5098,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C199" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D199" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E199" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5091,16 +5115,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C200" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D200" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E200" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5108,16 +5132,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C201" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D201" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E201" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5125,16 +5149,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D202" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E202" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5142,16 +5166,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C203" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D203" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E203" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5159,16 +5183,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C204" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D204" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E204" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5176,16 +5200,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C205" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D205" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E205" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5193,16 +5217,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D206" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E206" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5210,16 +5234,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C207" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D207" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E207" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5227,16 +5251,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C208" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E208" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5244,16 +5268,84 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" t="s">
+        <v>426</v>
+      </c>
+      <c r="D209" t="s">
+        <v>445</v>
+      </c>
+      <c r="E209" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>220</v>
+      </c>
+      <c r="C210" t="s">
+        <v>427</v>
+      </c>
+      <c r="D210" t="s">
+        <v>445</v>
+      </c>
+      <c r="E210" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>220</v>
+      </c>
+      <c r="C211" t="s">
+        <v>428</v>
+      </c>
+      <c r="D211" t="s">
+        <v>445</v>
+      </c>
+      <c r="E211" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>220</v>
+      </c>
+      <c r="C212" t="s">
+        <v>429</v>
+      </c>
+      <c r="D212" t="s">
+        <v>446</v>
+      </c>
+      <c r="E212" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
         <v>216</v>
       </c>
-      <c r="C209" t="s">
-        <v>423</v>
-      </c>
-      <c r="D209" t="s">
-        <v>438</v>
-      </c>
-      <c r="E209" t="s">
-        <v>441</v>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" t="s">
+        <v>430</v>
+      </c>
+      <c r="D213" t="s">
+        <v>446</v>
+      </c>
+      <c r="E213" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -502,7 +502,7 @@
     <t>paṭibhāti</t>
   </si>
   <si>
-    <t>paṭijānāti 2</t>
+    <t>paṭijānāti 3</t>
   </si>
   <si>
     <t>jināti 2</t>
@@ -871,7 +871,7 @@
     <t>mass; heap; pile</t>
   </si>
   <si>
-    <t>personal name of the Buddha; of the Gotama family; lit. excellent bull</t>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
   </si>
   <si>
     <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
@@ -1108,7 +1108,7 @@
     <t>leads (to); is useful (for); is conducive to</t>
   </si>
   <si>
-    <t>goes; moves; walks</t>
+    <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
     <t>lives; abides; dwells</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="442">
   <si>
     <t>Pāli1</t>
   </si>
@@ -520,15 +520,9 @@
     <t>mugga</t>
   </si>
   <si>
-    <t>pessaka</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>sippika</t>
-  </si>
-  <si>
     <t>kāraka 2</t>
   </si>
   <si>
@@ -559,9 +553,6 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>panūdati</t>
-  </si>
-  <si>
     <t>chindati</t>
   </si>
   <si>
@@ -625,9 +616,6 @@
     <t>gahapati</t>
   </si>
   <si>
-    <t>vīhi</t>
-  </si>
-  <si>
     <t>sāli</t>
   </si>
   <si>
@@ -1165,15 +1153,9 @@
     <t>mung beans</t>
   </si>
   <si>
-    <t>messenger; lit. who is sent</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>craftsman; artisan</t>
-  </si>
-  <si>
     <t>doer; maker; creator; builder</t>
   </si>
   <si>
@@ -1204,9 +1186,6 @@
     <t>eats; consumes</t>
   </si>
   <si>
-    <t>dispels; drives out; rejects; pushes away</t>
-  </si>
-  <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
@@ -1265,9 +1244,6 @@
   </si>
   <si>
     <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice paddy</t>
   </si>
   <si>
     <t>rice</t>
@@ -1721,7 +1697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,16 +1725,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
         <v>217</v>
       </c>
-      <c r="C2" t="s">
-        <v>221</v>
-      </c>
       <c r="D2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1766,16 +1742,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1783,16 +1759,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1800,16 +1776,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1817,16 +1793,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1834,16 +1810,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1851,16 +1827,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1868,16 +1844,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1885,16 +1861,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1902,16 +1878,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1919,16 +1895,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E12" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1936,16 +1912,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1953,16 +1929,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D14" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1970,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1987,16 +1963,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2004,16 +1980,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2021,16 +1997,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2038,16 +2014,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2055,16 +2031,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E20" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2072,16 +2048,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2089,16 +2065,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2106,16 +2082,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2123,16 +2099,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E24" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2140,16 +2116,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2157,16 +2133,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2174,16 +2150,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2191,16 +2167,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E28" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2208,16 +2184,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2225,16 +2201,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2242,16 +2218,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2259,16 +2235,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2276,16 +2252,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E33" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2293,16 +2269,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2310,16 +2286,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E35" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2327,16 +2303,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E36" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2344,16 +2320,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2361,16 +2337,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E38" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2378,16 +2354,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E39" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2395,16 +2371,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2412,16 +2388,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D41" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2429,16 +2405,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2446,16 +2422,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2463,16 +2439,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2480,16 +2456,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D45" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2497,16 +2473,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C46" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E46" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2514,16 +2490,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D47" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E47" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2531,16 +2507,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E48" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2548,16 +2524,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E49" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2565,16 +2541,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E50" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2582,16 +2558,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E51" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2599,16 +2575,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E52" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2616,16 +2592,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E53" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2633,16 +2609,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2650,16 +2626,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2667,16 +2643,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E56" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2684,16 +2660,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E57" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2701,16 +2677,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E58" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2718,16 +2694,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E59" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2735,16 +2711,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E60" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2752,16 +2728,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E61" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2769,16 +2745,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D62" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2786,16 +2762,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2803,16 +2779,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E64" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2820,16 +2796,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2837,16 +2813,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E66" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2854,16 +2830,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2871,16 +2847,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E68" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2888,16 +2864,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E69" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2905,16 +2881,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2922,16 +2898,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E71" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2939,16 +2915,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E72" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2956,16 +2932,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E73" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2973,16 +2949,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D74" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E74" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2990,16 +2966,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3007,16 +2983,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E76" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3024,16 +3000,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E77" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3041,16 +3017,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E78" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3058,16 +3034,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E79" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3075,16 +3051,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E80" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3092,16 +3068,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3109,16 +3085,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E82" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3126,16 +3102,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E83" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3143,16 +3119,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3160,16 +3136,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D85" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E85" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3177,16 +3153,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D86" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E86" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3194,16 +3170,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E87" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3211,16 +3187,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E88" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3228,16 +3204,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3245,16 +3221,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3262,16 +3238,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D91" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E91" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3279,16 +3255,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D92" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E92" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3296,16 +3272,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E93" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3313,16 +3289,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D94" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E94" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3330,16 +3306,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D95" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E95" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3347,16 +3323,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D96" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E96" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3364,16 +3340,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D97" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E97" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3381,16 +3357,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D98" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E98" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3398,16 +3374,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D99" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3415,16 +3391,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D100" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3432,16 +3408,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D101" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E101" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3449,16 +3425,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C102" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D102" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E102" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3466,16 +3442,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C103" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3483,16 +3459,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3500,16 +3476,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E105" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3517,16 +3493,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D106" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E106" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3534,16 +3510,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D107" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E107" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3551,16 +3527,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E108" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3568,16 +3544,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D109" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E109" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3585,16 +3561,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D110" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E110" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3602,16 +3578,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D111" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E111" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3619,16 +3595,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E112" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3636,16 +3612,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D113" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3653,16 +3629,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D114" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E114" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3670,16 +3646,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E115" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3687,16 +3663,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D116" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E116" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3704,16 +3680,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D117" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3721,16 +3697,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3738,16 +3714,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3755,16 +3731,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C120" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D120" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E120" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3772,16 +3748,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D121" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3789,16 +3765,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D122" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3806,16 +3782,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C123" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D123" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E123" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3823,16 +3799,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D124" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3840,16 +3816,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E125" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3857,16 +3833,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D126" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3874,16 +3850,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D127" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E127" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3891,16 +3867,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D128" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3908,16 +3884,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D129" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3925,16 +3901,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D130" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3942,16 +3918,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E131" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3959,16 +3935,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D132" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3976,16 +3952,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3993,16 +3969,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D134" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4010,16 +3986,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D135" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E135" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4027,16 +4003,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D136" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4044,16 +4020,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D137" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E137" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4061,16 +4037,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D138" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4078,16 +4054,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D139" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E139" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4095,16 +4071,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4112,16 +4088,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E141" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4129,16 +4105,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4146,16 +4122,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D143" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E143" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4163,16 +4139,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4180,16 +4156,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E145" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4197,16 +4173,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D146" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E146" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4214,16 +4190,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D147" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4231,16 +4207,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D148" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E148" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4248,16 +4224,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D149" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E149" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4265,16 +4241,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D150" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E150" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4282,16 +4258,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D151" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E151" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4299,16 +4275,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D152" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E152" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4316,16 +4292,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D153" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E153" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4333,16 +4309,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D154" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E154" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4350,16 +4326,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D155" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4367,16 +4343,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D156" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4384,16 +4360,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D157" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4401,16 +4377,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D158" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E158" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4418,16 +4394,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D159" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E159" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4435,16 +4411,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D160" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E160" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4452,16 +4428,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D161" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E161" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4469,16 +4445,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D162" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4486,16 +4462,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D163" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E163" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4503,16 +4479,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C164" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D164" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E164" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4520,16 +4496,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D165" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E165" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4537,16 +4513,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C166" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D166" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E166" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4554,16 +4530,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D167" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E167" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4571,16 +4547,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C168" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D168" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E168" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4588,16 +4564,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E169" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4605,16 +4581,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D170" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4622,16 +4598,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D171" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E171" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4639,16 +4615,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D172" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E172" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4656,16 +4632,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D173" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E173" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4673,16 +4649,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D174" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E174" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4690,16 +4666,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D175" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E175" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4707,16 +4683,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D176" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E176" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4724,16 +4700,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D177" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E177" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4741,16 +4717,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D178" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E178" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4758,16 +4734,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D179" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E179" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4775,16 +4751,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D180" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E180" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4792,16 +4768,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D181" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E181" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4809,16 +4785,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C182" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D182" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E182" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4826,16 +4802,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D183" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E183" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4843,16 +4819,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4860,16 +4836,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C185" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D185" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E185" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4877,16 +4853,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D186" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E186" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4894,16 +4870,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D187" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E187" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4911,16 +4887,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D188" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E188" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4928,16 +4904,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D189" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E189" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4945,16 +4921,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D190" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E190" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4962,16 +4938,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C191" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D191" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4979,16 +4955,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C192" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D192" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E192" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4996,16 +4972,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C193" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D193" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E193" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5013,16 +4989,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D194" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E194" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5030,16 +5006,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D195" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E195" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5047,16 +5023,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C196" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D196" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E196" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5064,16 +5040,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D197" t="s">
+        <v>434</v>
+      </c>
+      <c r="E197" t="s">
         <v>441</v>
-      </c>
-      <c r="E197" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5081,16 +5057,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C198" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D198" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E198" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5098,16 +5074,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C199" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D199" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E199" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5115,16 +5091,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C200" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D200" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E200" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5132,16 +5108,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C201" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D201" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E201" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5149,16 +5125,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C202" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D202" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E202" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5166,16 +5142,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C203" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D203" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E203" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5183,16 +5159,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C204" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D204" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E204" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5200,16 +5176,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C205" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D205" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E205" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5217,16 +5193,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C206" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D206" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E206" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5234,16 +5210,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C207" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D207" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E207" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5251,16 +5227,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C208" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D208" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E208" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5268,84 +5244,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C209" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D209" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E209" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>213</v>
-      </c>
-      <c r="B210" t="s">
-        <v>220</v>
-      </c>
-      <c r="C210" t="s">
-        <v>427</v>
-      </c>
-      <c r="D210" t="s">
-        <v>445</v>
-      </c>
-      <c r="E210" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>214</v>
-      </c>
-      <c r="B211" t="s">
-        <v>220</v>
-      </c>
-      <c r="C211" t="s">
-        <v>428</v>
-      </c>
-      <c r="D211" t="s">
-        <v>445</v>
-      </c>
-      <c r="E211" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>215</v>
-      </c>
-      <c r="B212" t="s">
-        <v>220</v>
-      </c>
-      <c r="C212" t="s">
-        <v>429</v>
-      </c>
-      <c r="D212" t="s">
-        <v>446</v>
-      </c>
-      <c r="E212" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>216</v>
-      </c>
-      <c r="B213" t="s">
-        <v>220</v>
-      </c>
-      <c r="C213" t="s">
-        <v>430</v>
-      </c>
-      <c r="D213" t="s">
-        <v>446</v>
-      </c>
-      <c r="E213" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="421">
   <si>
     <t>Pāli1</t>
   </si>
@@ -61,9 +61,6 @@
     <t>danta 2</t>
   </si>
   <si>
-    <t>nakha</t>
-  </si>
-  <si>
     <t>loma</t>
   </si>
   <si>
@@ -73,7 +70,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 1</t>
+    <t>dhamma 03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -115,7 +112,7 @@
     <t>samaya 1</t>
   </si>
   <si>
-    <t>attha 1</t>
+    <t>attha 01</t>
   </si>
   <si>
     <t>sāriputta</t>
@@ -181,7 +178,7 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 1</t>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>khaya</t>
@@ -196,7 +193,7 @@
     <t>sekha</t>
   </si>
   <si>
-    <t>dhamma 5</t>
+    <t>dhamma 02</t>
   </si>
   <si>
     <t>samatha 1</t>
@@ -292,13 +289,13 @@
     <t>uppāda</t>
   </si>
   <si>
-    <t>dhamma 2</t>
+    <t>dhamma 05</t>
   </si>
   <si>
     <t>moha</t>
   </si>
   <si>
-    <t>bāla 4</t>
+    <t>bāla 2</t>
   </si>
   <si>
     <t>kāya 1</t>
@@ -313,7 +310,7 @@
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 5</t>
+    <t>attha 05</t>
   </si>
   <si>
     <t>abyāpāda</t>
@@ -352,7 +349,7 @@
     <t>thera 2</t>
   </si>
   <si>
-    <t>dhamma 9</t>
+    <t>dhamma 09</t>
   </si>
   <si>
     <t>nara</t>
@@ -439,12 +436,6 @@
     <t>paṭilabhati</t>
   </si>
   <si>
-    <t>tasati 1</t>
-  </si>
-  <si>
-    <t>āmantayati 1</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -478,9 +469,6 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>paṭiggaheti</t>
-  </si>
-  <si>
     <t>dhāreti 2</t>
   </si>
   <si>
@@ -505,9 +493,6 @@
     <t>paṭijānāti 3</t>
   </si>
   <si>
-    <t>jināti 2</t>
-  </si>
-  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
@@ -517,18 +502,9 @@
     <t>pāpuṇāti 1</t>
   </si>
   <si>
-    <t>mugga</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kāraka 2</t>
-  </si>
-  <si>
-    <t>dhaja 1</t>
-  </si>
-  <si>
     <t>kassaka</t>
   </si>
   <si>
@@ -574,15 +550,9 @@
     <t>āmantesi</t>
   </si>
   <si>
-    <t>homa 3</t>
-  </si>
-  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hontu</t>
-  </si>
-  <si>
     <t>hoti 1</t>
   </si>
   <si>
@@ -607,9 +577,6 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>agacchi</t>
-  </si>
-  <si>
     <t>muni</t>
   </si>
   <si>
@@ -697,9 +664,6 @@
     <t>tooth; tusk; fang</t>
   </si>
   <si>
-    <t>a nail; a claw</t>
-  </si>
-  <si>
     <t>the hair on the body; pelt</t>
   </si>
   <si>
@@ -733,7 +697,7 @@
     <t>being; existence; becoming</t>
   </si>
   <si>
-    <t>rainy season; rain</t>
+    <t>rainy season; monsoon</t>
   </si>
   <si>
     <t>house; dwelling place; residence</t>
@@ -928,7 +892,7 @@
     <t>arising; appearing; coming into being</t>
   </si>
   <si>
-    <t>state of mind</t>
+    <t>state of mind; mental states</t>
   </si>
   <si>
     <t>stupidity; delusion; illusion; confusion</t>
@@ -1075,12 +1039,6 @@
     <t>obtains; receives; gets</t>
   </si>
   <si>
-    <t>is afraid (of); fears</t>
-  </si>
-  <si>
-    <t>adresses; speaks to; tells</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -1114,33 +1072,30 @@
     <t>undergoes; feels; experiences</t>
   </si>
   <si>
+    <t>bears in mind; keeps in mind; remembers</t>
+  </si>
+  <si>
+    <t>gives; offers; hands</t>
+  </si>
+  <si>
+    <t>come; come here!</t>
+  </si>
+  <si>
+    <t>listens; hears</t>
+  </si>
+  <si>
+    <t>he must hear! may he listen!</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to); appears; becomes evident</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
-    <t>surpasses; beats; wins (over)</t>
-  </si>
-  <si>
     <t>knows; understands</t>
   </si>
   <si>
@@ -1150,18 +1105,9 @@
     <t>reaches; arrives (at); attains; experiences</t>
   </si>
   <si>
-    <t>mung beans</t>
-  </si>
-  <si>
     <t>merchant; trader</t>
   </si>
   <si>
-    <t>doer; maker; creator; builder</t>
-  </si>
-  <si>
-    <t>flag; banner; symbol; emblem; lit. flapping (on the wind)</t>
-  </si>
-  <si>
     <t>farmer; ploughman</t>
   </si>
   <si>
@@ -1210,9 +1156,6 @@
     <t>may you all be! you all must be!</t>
   </si>
   <si>
-    <t>may they be! they must be!</t>
-  </si>
-  <si>
     <t>is</t>
   </si>
   <si>
@@ -1237,9 +1180,6 @@
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>went; travelled</t>
-  </si>
-  <si>
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
@@ -1313,9 +1253,6 @@
   </si>
   <si>
     <t>i-aor</t>
-  </si>
-  <si>
-    <t>i-aor-issaṃ</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -1697,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,16 +1662,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1742,16 +1679,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1759,16 +1696,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E4" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1776,16 +1713,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E5" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1793,16 +1730,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1810,16 +1747,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1827,16 +1764,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1844,16 +1781,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
         <v>213</v>
       </c>
-      <c r="C9" t="s">
-        <v>224</v>
-      </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1861,16 +1798,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1878,16 +1815,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1895,16 +1832,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1912,16 +1849,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D13" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1929,16 +1866,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1946,16 +1883,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E15" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1963,16 +1900,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1980,16 +1917,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E17" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1997,16 +1934,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2014,16 +1951,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2031,16 +1968,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2048,16 +1985,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2065,16 +2002,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E22" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2082,16 +2019,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2099,16 +2036,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E24" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2116,16 +2053,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2133,16 +2070,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D26" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E26" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2150,16 +2087,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E27" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2167,16 +2104,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E28" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2184,16 +2121,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D29" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E29" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2201,16 +2138,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2218,16 +2155,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E31" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2235,16 +2172,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E32" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2252,16 +2189,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E33" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2269,16 +2206,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D34" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E34" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2286,16 +2223,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E35" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2303,16 +2240,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E36" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2320,16 +2257,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2337,16 +2274,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E38" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2354,16 +2291,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D39" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E39" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2371,16 +2308,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D40" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E40" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2388,16 +2325,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D41" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E41" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2405,16 +2342,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D42" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2422,16 +2359,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E43" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2439,16 +2376,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D44" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E44" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2456,16 +2393,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D45" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E45" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2473,16 +2410,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D46" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E46" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2490,16 +2427,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D47" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E47" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2507,16 +2444,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E48" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2524,16 +2461,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D49" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E49" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2541,16 +2478,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D50" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E50" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2558,16 +2495,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E51" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2575,16 +2512,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2592,16 +2529,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D53" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E53" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2609,16 +2546,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D54" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E54" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2626,16 +2563,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D55" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2643,16 +2580,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2660,16 +2597,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D57" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2677,16 +2614,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2694,16 +2631,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D59" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E59" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2711,16 +2648,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D60" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E60" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2728,16 +2665,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D61" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2745,16 +2682,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D62" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E62" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2762,16 +2699,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D63" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2779,16 +2716,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2796,16 +2733,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E65" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2813,16 +2750,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2830,16 +2767,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2847,16 +2784,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E68" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2864,16 +2801,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E69" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2881,16 +2818,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E70" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2898,16 +2835,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D71" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E71" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2915,16 +2852,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D72" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E72" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2932,16 +2869,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D73" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E73" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2949,16 +2886,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E74" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2966,16 +2903,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D75" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2983,16 +2920,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D76" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E76" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3000,16 +2937,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3017,16 +2954,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E78" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3034,16 +2971,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E79" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3051,16 +2988,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D80" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E80" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3068,16 +3005,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D81" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E81" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3085,16 +3022,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E82" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3102,16 +3039,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E83" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3119,16 +3056,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E84" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3136,16 +3073,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E85" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3153,16 +3090,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E86" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3170,16 +3107,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E87" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3187,16 +3124,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D88" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E88" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3204,16 +3141,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E89" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3221,16 +3158,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3238,16 +3175,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D91" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E91" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3255,16 +3192,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D92" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E92" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3272,16 +3209,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E93" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3289,16 +3226,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E94" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3306,16 +3243,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E95" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3323,16 +3260,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D96" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3340,16 +3277,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E97" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3357,16 +3294,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E98" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3374,16 +3311,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E99" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3391,16 +3328,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E100" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3408,16 +3345,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D101" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E101" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3425,16 +3362,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D102" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E102" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3442,16 +3379,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D103" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E103" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3459,16 +3396,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3476,16 +3413,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D105" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3493,16 +3430,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E106" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3510,16 +3447,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D107" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E107" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3527,16 +3464,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D108" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E108" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3544,16 +3481,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D109" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E109" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3561,16 +3498,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E110" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3578,16 +3515,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E111" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3595,16 +3532,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E112" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3612,16 +3549,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E113" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3629,16 +3566,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3646,16 +3583,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D115" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E115" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3663,16 +3600,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E116" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3680,16 +3617,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D117" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E117" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3697,16 +3634,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E118" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3714,16 +3651,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D119" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E119" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3731,16 +3668,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D120" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E120" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3748,16 +3685,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3765,16 +3702,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D122" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E122" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3782,16 +3719,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D123" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3799,16 +3736,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D124" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3816,16 +3753,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D125" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E125" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3833,16 +3770,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D126" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E126" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3850,16 +3787,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E127" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3867,16 +3804,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E128" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3884,16 +3821,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D129" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E129" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3901,16 +3838,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E130" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3918,16 +3855,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D131" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E131" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3935,16 +3872,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D132" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E132" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3952,16 +3889,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D133" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E133" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3969,16 +3906,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D134" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E134" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3986,16 +3923,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D135" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E135" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4003,16 +3940,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E136" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4020,16 +3957,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D137" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E137" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4037,16 +3974,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D138" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E138" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4054,16 +3991,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D139" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E139" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4071,16 +4008,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E140" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4088,16 +4025,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D141" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E141" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4105,16 +4042,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D142" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E142" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4122,16 +4059,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D143" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E143" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4139,16 +4076,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D144" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E144" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4156,16 +4093,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D145" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E145" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4173,16 +4110,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D146" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E146" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4190,16 +4127,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D147" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E147" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4207,16 +4144,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D148" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="E148" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4224,16 +4161,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C149" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E149" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4241,16 +4178,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D150" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E150" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4258,16 +4195,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D151" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E151" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4275,16 +4212,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D152" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E152" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4292,16 +4229,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C153" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D153" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E153" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4309,16 +4246,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E154" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4326,16 +4263,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D155" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E155" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4343,16 +4280,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D156" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E156" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4360,16 +4297,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D157" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E157" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4377,16 +4314,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D158" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="E158" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4394,16 +4331,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C159" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D159" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E159" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4411,16 +4348,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C160" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D160" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E160" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4428,16 +4365,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C161" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D161" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="E161" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4445,16 +4382,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C162" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D162" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="E162" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4462,16 +4399,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D163" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="E163" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4479,16 +4416,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D164" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E164" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4496,16 +4433,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C165" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D165" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E165" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4513,16 +4450,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C166" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D166" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4530,16 +4467,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C167" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D167" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E167" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4547,16 +4484,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C168" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D168" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E168" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4564,16 +4501,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D169" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4581,16 +4518,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C170" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D170" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E170" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4598,16 +4535,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C171" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D171" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E171" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4615,16 +4552,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C172" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D172" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E172" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4632,16 +4569,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C173" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D173" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E173" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4649,16 +4586,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D174" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E174" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4666,16 +4603,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D175" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4683,16 +4620,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C176" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D176" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4700,16 +4637,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D177" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E177" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4717,16 +4654,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D178" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E178" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4734,16 +4671,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D179" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E179" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4751,16 +4688,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D180" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E180" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4768,16 +4705,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D181" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="E181" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4785,16 +4722,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D182" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E182" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4802,16 +4739,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D183" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E183" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4819,16 +4756,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C184" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D184" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E184" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4836,16 +4773,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D185" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E185" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4853,16 +4790,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D186" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E186" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4870,16 +4807,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C187" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D187" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E187" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4887,16 +4824,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D188" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E188" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4904,16 +4841,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D189" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E189" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4921,16 +4858,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D190" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E190" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4938,16 +4875,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C191" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D191" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E191" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4955,16 +4892,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D192" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E192" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4972,16 +4909,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C193" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D193" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E193" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4989,16 +4926,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C194" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D194" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E194" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5006,16 +4943,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D195" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E195" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5023,16 +4960,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D196" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E196" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5040,16 +4977,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D197" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="E197" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5057,203 +4994,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D198" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="E198" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" t="s">
-        <v>213</v>
-      </c>
-      <c r="C199" t="s">
-        <v>412</v>
-      </c>
-      <c r="D199" t="s">
-        <v>434</v>
-      </c>
-      <c r="E199" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" t="s">
-        <v>413</v>
-      </c>
-      <c r="D200" t="s">
-        <v>434</v>
-      </c>
-      <c r="E200" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201" t="s">
-        <v>213</v>
-      </c>
-      <c r="C201" t="s">
-        <v>414</v>
-      </c>
-      <c r="D201" t="s">
-        <v>434</v>
-      </c>
-      <c r="E201" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>205</v>
-      </c>
-      <c r="B202" t="s">
-        <v>214</v>
-      </c>
-      <c r="C202" t="s">
-        <v>415</v>
-      </c>
-      <c r="D202" t="s">
-        <v>435</v>
-      </c>
-      <c r="E202" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>206</v>
-      </c>
-      <c r="B203" t="s">
-        <v>215</v>
-      </c>
-      <c r="C203" t="s">
-        <v>416</v>
-      </c>
-      <c r="D203" t="s">
-        <v>435</v>
-      </c>
-      <c r="E203" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>207</v>
-      </c>
-      <c r="B204" t="s">
-        <v>214</v>
-      </c>
-      <c r="C204" t="s">
-        <v>417</v>
-      </c>
-      <c r="D204" t="s">
-        <v>436</v>
-      </c>
-      <c r="E204" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>208</v>
-      </c>
-      <c r="B205" t="s">
-        <v>216</v>
-      </c>
-      <c r="C205" t="s">
-        <v>418</v>
-      </c>
-      <c r="D205" t="s">
-        <v>437</v>
-      </c>
-      <c r="E205" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206" t="s">
-        <v>216</v>
-      </c>
-      <c r="C206" t="s">
-        <v>419</v>
-      </c>
-      <c r="D206" t="s">
-        <v>437</v>
-      </c>
-      <c r="E206" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>210</v>
-      </c>
-      <c r="B207" t="s">
-        <v>216</v>
-      </c>
-      <c r="C207" t="s">
         <v>420</v>
-      </c>
-      <c r="D207" t="s">
-        <v>437</v>
-      </c>
-      <c r="E207" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>211</v>
-      </c>
-      <c r="B208" t="s">
-        <v>216</v>
-      </c>
-      <c r="C208" t="s">
-        <v>421</v>
-      </c>
-      <c r="D208" t="s">
-        <v>438</v>
-      </c>
-      <c r="E208" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>212</v>
-      </c>
-      <c r="B209" t="s">
-        <v>216</v>
-      </c>
-      <c r="C209" t="s">
-        <v>422</v>
-      </c>
-      <c r="D209" t="s">
-        <v>438</v>
-      </c>
-      <c r="E209" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -58,7 +58,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -412,7 +412,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -661,7 +661,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -670,7 +670,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -748,7 +748,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -1111,7 +1111,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -46,7 +46,7 @@
     <t>sāvaka</t>
   </si>
   <si>
-    <t>adhigama</t>
+    <t>adhigama 1</t>
   </si>
   <si>
     <t>ñāya</t>
@@ -61,7 +61,7 @@
     <t>danta 1</t>
   </si>
   <si>
-    <t>loma</t>
+    <t>loma 1</t>
   </si>
   <si>
     <t>kesa</t>
@@ -88,7 +88,7 @@
     <t>puggala</t>
   </si>
   <si>
-    <t>uposatha</t>
+    <t>uposatha 1</t>
   </si>
   <si>
     <t>bhava 2</t>
@@ -97,7 +97,7 @@
     <t>vassa 2</t>
   </si>
   <si>
-    <t>āvāsa</t>
+    <t>āvāsa 1</t>
   </si>
   <si>
     <t>saṃvara 2</t>
@@ -124,7 +124,7 @@
     <t>saṅkhāra 3</t>
   </si>
   <si>
-    <t>phassa</t>
+    <t>phassa 1</t>
   </si>
   <si>
     <t>puthujjana</t>
@@ -142,7 +142,7 @@
     <t>pāda 1</t>
   </si>
   <si>
-    <t>parikkhāra</t>
+    <t>parikkhāra 1</t>
   </si>
   <si>
     <t>patha 2</t>
@@ -184,10 +184,10 @@
     <t>khaya</t>
   </si>
   <si>
-    <t>āsava</t>
-  </si>
-  <si>
-    <t>nīvaraṇa</t>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
   </si>
   <si>
     <t>sekha</t>
@@ -286,13 +286,13 @@
     <t>chanda 1</t>
   </si>
   <si>
-    <t>uppāda</t>
+    <t>uppāda 1</t>
   </si>
   <si>
     <t>dhamma 05</t>
   </si>
   <si>
-    <t>moha</t>
+    <t>moha 1</t>
   </si>
   <si>
     <t>bāla 2</t>
@@ -325,7 +325,7 @@
     <t>ākāsa 2</t>
   </si>
   <si>
-    <t>ācariya</t>
+    <t>ācariya 1</t>
   </si>
   <si>
     <t>upajjhāya</t>
@@ -364,19 +364,19 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 1</t>
+    <t>saṅghādisesa 2</t>
   </si>
   <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
-    <t>sīha</t>
-  </si>
-  <si>
-    <t>vitakka</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -388,7 +388,7 @@
     <t>kosalā</t>
   </si>
   <si>
-    <t>pātimokkha</t>
+    <t>pātimokkha 2</t>
   </si>
   <si>
     <t>punabbhava</t>
@@ -400,7 +400,7 @@
     <t>pakkamati 1</t>
   </si>
   <si>
-    <t>bhaṇati</t>
+    <t>bhaṇati 1</t>
   </si>
   <si>
     <t>pucchati</t>
@@ -427,7 +427,7 @@
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>rakkhati 1</t>
+    <t>rakkhati 2</t>
   </si>
   <si>
     <t>bhāsati 1</t>
@@ -454,7 +454,7 @@
     <t>gacchati 1</t>
   </si>
   <si>
-    <t>viharati</t>
+    <t>viharati 1</t>
   </si>
   <si>
     <t>passati 1</t>
@@ -469,16 +469,16 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
-    <t>dhāreti 2</t>
-  </si>
-  <si>
-    <t>deti</t>
+    <t>dhāreti 3</t>
+  </si>
+  <si>
+    <t>deti 1</t>
   </si>
   <si>
     <t>ehi</t>
   </si>
   <si>
-    <t>suṇāti</t>
+    <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
@@ -520,7 +520,7 @@
     <t>paṭipajjati 2</t>
   </si>
   <si>
-    <t>nibbindati</t>
+    <t>nibbindati 1</t>
   </si>
   <si>
     <t>anuyuñjati 2</t>
@@ -529,7 +529,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>chindati</t>
+    <t>chindati 1</t>
   </si>
   <si>
     <t>santi 3</t>
@@ -538,10 +538,10 @@
     <t>atthi 1</t>
   </si>
   <si>
-    <t>amha</t>
-  </si>
-  <si>
-    <t>asi 2</t>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
   </si>
   <si>
     <t>amhi</t>
@@ -577,7 +577,7 @@
     <t>nisīdi</t>
   </si>
   <si>
-    <t>muni</t>
+    <t>muni 1</t>
   </si>
   <si>
     <t>gahapati</t>
@@ -592,19 +592,19 @@
     <t>isi</t>
   </si>
   <si>
-    <t>samādhi</t>
+    <t>samādhi 1</t>
   </si>
   <si>
     <t>byādhi</t>
   </si>
   <si>
-    <t>karoti</t>
+    <t>karoti 1</t>
   </si>
   <si>
     <t>karohi</t>
   </si>
   <si>
-    <t>abhisaṅkharoti</t>
+    <t>abhisaṅkharoti 2</t>
   </si>
   <si>
     <t>abhāsi 1</t>
@@ -1057,7 +1057,7 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
-    <t>lives; abides; dwells</t>
+    <t>lives (in); dwells (in)</t>
   </si>
   <si>
     <t>sees</t>
@@ -1201,13 +1201,13 @@
     <t>sickness; disease; lit. upset; overturn</t>
   </si>
   <si>
-    <t>does; makes; acts; performs; builds</t>
+    <t>does; acts; performs</t>
   </si>
   <si>
     <t>do! make! may you preform; you must do</t>
   </si>
   <si>
-    <t>does; performs; creates; constructs</t>
+    <t>does; performs; lit. constructs</t>
   </si>
   <si>
     <t>spoke; said</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -664,7 +664,7 @@
     <t>tooth</t>
   </si>
   <si>
-    <t>the hair on the body; pelt</t>
+    <t>body hair</t>
   </si>
   <si>
     <t>hair of the head</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -85,6 +85,9 @@
     <t>papañca</t>
   </si>
   <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
     <t>puggala</t>
   </si>
   <si>
@@ -307,39 +310,39 @@
     <t>cora</t>
   </si>
   <si>
+    <t>attha 05</t>
+  </si>
+  <si>
+    <t>patta 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
     <t>cāga 2</t>
   </si>
   <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
     <t>tathāgata</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna</t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>vitakka 1</t>
   </si>
   <si>
-    <t>vipāka</t>
+    <t>vipāka 1</t>
   </si>
   <si>
     <t>viveka 1</t>
@@ -688,6 +688,9 @@
     <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
   </si>
   <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
     <t>an individual; a person</t>
   </si>
   <si>
@@ -910,39 +913,39 @@
     <t>thief</t>
   </si>
   <si>
+    <t>need (for); want (for)</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; spiritual teacher</t>
+  </si>
+  <si>
+    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>beneficial friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection (of houses)</t>
+  </si>
+  <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
-  </si>
-  <si>
     <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
   </si>
   <si>
@@ -965,9 +968,6 @@
   </si>
   <si>
     <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
     <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -31,21 +31,201 @@
     <t>class</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -55,6 +235,30 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -67,210 +271,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -388,75 +388,75 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -508,45 +508,45 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>chindati 1</t>
   </si>
   <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -580,15 +580,15 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -634,21 +634,201 @@
     <t>aor</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -658,6 +838,30 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -670,210 +874,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -991,75 +991,75 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -1111,45 +1111,45 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>cuts; cuts off; severs</t>
   </si>
   <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -1183,13 +1183,13 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>fire</t>
   </si>
   <si>
     <t>seer; sage</t>
@@ -3753,7 +3753,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C125" t="s">
         <v>329</v>
@@ -3821,7 +3821,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>333</v>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -34,7 +34,7 @@
     <t>vinaya 1</t>
   </si>
   <si>
-    <t>dhamma 03</t>
+    <t>dhamma 1.03</t>
   </si>
   <si>
     <t>pariyāya 4</t>
@@ -73,261 +73,261 @@
     <t>putta 1</t>
   </si>
   <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>attha 01</t>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
   </si>
   <si>
     <t>sāriputta</t>
   </si>
   <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
     <t>ābādha</t>
   </si>
   <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1</t>
-  </si>
-  <si>
-    <t>dhamma 05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 05</t>
-  </si>
-  <si>
-    <t>patta 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -349,10 +349,10 @@
     <t>thullaccaya</t>
   </si>
   <si>
-    <t>thera 2</t>
-  </si>
-  <si>
-    <t>dhamma 09</t>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
   </si>
   <si>
     <t>nara</t>
@@ -367,7 +367,7 @@
     <t>manasikāra</t>
   </si>
   <si>
-    <t>satipaṭṭhāna</t>
+    <t>satipaṭṭhāna 1</t>
   </si>
   <si>
     <t>sīha 1</t>
@@ -400,7 +400,7 @@
     <t>pajahati</t>
   </si>
   <si>
-    <t>passa 5</t>
+    <t>passa 2.1</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -421,7 +421,7 @@
     <t>rakkhati 2</t>
   </si>
   <si>
-    <t>bhāsati 1</t>
+    <t>bhāsati 1.1</t>
   </si>
   <si>
     <t>paṭilabhati</t>
@@ -433,10 +433,10 @@
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
   </si>
   <si>
     <t>khādati</t>
@@ -460,7 +460,7 @@
     <t>passati 1</t>
   </si>
   <si>
-    <t>carati 1</t>
+    <t>carati 1.1</t>
   </si>
   <si>
     <t>ceteti 2</t>
@@ -517,25 +517,25 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
     <t>nibbindati 1</t>
   </si>
   <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
     <t>chindati 1</t>
   </si>
   <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
   </si>
   <si>
     <t>amhi</t>
@@ -565,7 +565,7 @@
     <t>udapādi 1</t>
   </si>
   <si>
-    <t>abhinandi</t>
+    <t>abhinandi 1</t>
   </si>
   <si>
     <t>sammodi</t>
@@ -619,7 +619,7 @@
     <t>āsiṃ</t>
   </si>
   <si>
-    <t>āsi 1</t>
+    <t>āsi 1.1</t>
   </si>
   <si>
     <t>masc</t>
@@ -637,340 +637,340 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
-    <t>teaching; doctrine</t>
+    <t>teaching; discourse; doctrine</t>
   </si>
   <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
   </si>
   <si>
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
-    <t>an individual; a person</t>
+    <t>person; individual</t>
   </si>
   <si>
     <t>full moon or new moon observance day</t>
   </si>
   <si>
-    <t>being; existence; becoming</t>
+    <t>being; becoming; existence</t>
   </si>
   <si>
     <t>rainy season; monsoon</t>
   </si>
   <si>
-    <t>house; dwelling place; residence</t>
+    <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
-    <t>child; son</t>
+    <t>son; child</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
   </si>
   <si>
     <t>disease; sickness; illness; affliction</t>
   </si>
   <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>way; means; method; lit. path</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>disciple; pupil; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>arrival (at); attainment (of); reaching (of)</t>
-  </si>
-  <si>
-    <t>method; system; (right) path</t>
-  </si>
-  <si>
-    <t>surpassing; overcoming; going beyond</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>distinction; attainment</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>hair of the head</t>
-  </si>
-  <si>
-    <t>friend; companion; fellow traveller</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>the Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising; appearing; coming into being</t>
-  </si>
-  <si>
-    <t>state of mind; mental states</t>
-  </si>
-  <si>
-    <t>stupidity; delusion; illusion; confusion</t>
-  </si>
-  <si>
-    <t>fool; immature person; ignorant person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process; lit. collection</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief</t>
-  </si>
-  <si>
-    <t>need (for); want (for)</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside (to)</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; spiritual teacher</t>
-  </si>
-  <si>
-    <t>preceptor; teacher; spiritual teacher; the sponsor for a bhikkhu’s upasampadā</t>
+    <t>preceptor; teacher</t>
   </si>
   <si>
     <t>lay disciple; lay devotee; lit. who sits near</t>
   </si>
   <si>
-    <t>beneficial friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection (of houses)</t>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
   </si>
   <si>
     <t>generosity; sharing; liberality</t>
   </si>
   <si>
-    <t>Such Become; Realised; being in such a state; arrived to the truth; epithet of the Buddha; lit. thus gone; (or) thus came</t>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
   </si>
   <si>
     <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
   </si>
   <si>
-    <t>elder; senior monk; monk with 10 or more vassa; lit. lasting</t>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>law; case; rule</t>
   </si>
   <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance</t>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>element of awakening; factor of enlightenment</t>
   </si>
   <si>
-    <t>attention; mental application; lit. making in mind</t>
-  </si>
-  <si>
-    <t>establishing mindfulness; setting up attention; foundation of mindfulness</t>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
     <t>lion</t>
@@ -979,10 +979,10 @@
     <t>thought; reflection; pondering</t>
   </si>
   <si>
-    <t>result; consequence; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement</t>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
   </si>
   <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
@@ -991,22 +991,22 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
-    <t>(vinaya) 227 precepts for Buddhist monks</t>
-  </si>
-  <si>
-    <t>analysis; classification; breakdown</t>
-  </si>
-  <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
+    <t>appearing again; renewed existence; rebirth; future life</t>
+  </si>
+  <si>
+    <t>(vinaya) precepts for Buddhist monastics</t>
+  </si>
+  <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
+    <t>gives up; abandons; lets go (of)</t>
+  </si>
+  <si>
+    <t>see!; look (at)!</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>increases more and more; surpasses; outgrows</t>
@@ -1015,22 +1015,22 @@
     <t>says (to); speaks (to); tells (to)</t>
   </si>
   <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>goes; goes away (from); leaves</t>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>speaks; says; proclaims</t>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
@@ -1039,16 +1039,16 @@
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
   </si>
   <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
-    <t>leads (to); is useful (for); is conducive to</t>
+    <t>leads (to); results (in); causes</t>
   </si>
   <si>
     <t>goes; walks; moves; wanders around</t>
@@ -1066,31 +1066,31 @@
     <t>walks; wanders; goes around; travels; fares on</t>
   </si>
   <si>
-    <t>intends; will (to); lit. thinks</t>
-  </si>
-  <si>
-    <t>undergoes; feels; experiences</t>
-  </si>
-  <si>
-    <t>bears in mind; keeps in mind; remembers</t>
-  </si>
-  <si>
-    <t>gives; offers; hands</t>
-  </si>
-  <si>
-    <t>come; come here!</t>
-  </si>
-  <si>
-    <t>listens; hears</t>
-  </si>
-  <si>
-    <t>he must hear! may he listen!</t>
+    <t>intends; will (to)</t>
+  </si>
+  <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
+    <t>bears in mind; keeps in mind; remembers; lit. carries</t>
+  </si>
+  <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
+    <t>come!</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
   </si>
   <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to); appears; becomes evident</t>
+    <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
@@ -1102,10 +1102,10 @@
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>reaches; arrives (at); attains; experiences</t>
-  </si>
-  <si>
-    <t>merchant; trader</t>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>trader; dealer</t>
   </si>
   <si>
     <t>farmer; ploughman</t>
@@ -1114,16 +1114,13 @@
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
     <t>eats; consumes</t>
@@ -1132,7 +1129,10 @@
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>cuts; cuts off; severs</t>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
   </si>
   <si>
     <t>we are</t>
@@ -1144,46 +1144,46 @@
     <t>I am</t>
   </si>
   <si>
-    <t>they are; there are</t>
-  </si>
-  <si>
-    <t>there is</t>
-  </si>
-  <si>
-    <t>addressed; said (to)</t>
-  </si>
-  <si>
-    <t>may you all be! you all must be!</t>
+    <t>virtuous woman; good woman</t>
+  </si>
+  <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>addressed; said (to); advised</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
     <t>is</t>
   </si>
   <si>
-    <t>replied; assented; agreed</t>
+    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>
   </si>
   <si>
-    <t>arose; appeared</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; was friendly (with)</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to)</t>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
   </si>
   <si>
     <t>sat (on); sat down (in)</t>
   </si>
   <si>
-    <t>monk; sage; hermit; holy man</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fine rice</t>
   </si>
   <si>
     <t>fire</t>
@@ -1195,16 +1195,16 @@
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure; lit. putting together</t>
-  </si>
-  <si>
-    <t>sickness; disease; lit. upset; overturn</t>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
     <t>does; acts; performs</t>
   </si>
   <si>
-    <t>do! make! may you preform; you must do</t>
+    <t>do!; make!</t>
   </si>
   <si>
     <t>does; performs; lit. constructs</t>
@@ -1216,13 +1216,13 @@
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; explained</t>
+    <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
     <t>I was</t>
   </si>
   <si>
-    <t>one was; it was</t>
+    <t>was</t>
   </si>
   <si>
     <t>a-masc</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -37,321 +37,321 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -400,69 +400,69 @@
     <t>pajahati</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>ceteti 2</t>
   </si>
   <si>
@@ -484,24 +484,24 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -568,15 +568,15 @@
     <t>abhinandi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -610,12 +610,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -640,321 +640,321 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -1003,69 +1003,69 @@
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
@@ -1087,24 +1087,24 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -1171,15 +1171,15 @@
     <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1213,10 +1213,10 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
-  </si>
-  <si>
-    <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
     <t>I was</t>
@@ -3753,7 +3753,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
         <v>329</v>
@@ -4093,7 +4093,7 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
         <v>349</v>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -34,180 +34,219 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -223,12 +262,6 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -244,9 +277,6 @@
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
@@ -280,15 +310,9 @@
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -298,33 +322,15 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>upajjhāya</t>
   </si>
   <si>
@@ -349,9 +355,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -361,9 +364,6 @@
     <t>nissaya 1</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -415,24 +415,24 @@
     <t>rakkhati 1</t>
   </si>
   <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -469,12 +469,12 @@
     <t>paṭisaṃvedeti</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>ehi</t>
   </si>
   <si>
@@ -508,28 +508,34 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
   </si>
   <si>
     <t>amha 1.1</t>
@@ -538,15 +544,9 @@
     <t>asi 2.1</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -607,15 +607,15 @@
     <t>abhisaṅkharoti 2</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -637,180 +637,219 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -826,12 +865,6 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -847,9 +880,6 @@
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
@@ -883,15 +913,9 @@
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -901,33 +925,15 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>preceptor; teacher</t>
   </si>
   <si>
@@ -952,9 +958,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -964,9 +967,6 @@
     <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -1018,24 +1018,24 @@
     <t>wards off; prevents; guards against</t>
   </si>
   <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -1072,12 +1072,12 @@
     <t>personally experiences; undergoes; feels</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>come!</t>
   </si>
   <si>
@@ -1111,28 +1111,34 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
   </si>
   <si>
     <t>we are</t>
@@ -1141,15 +1147,9 @@
     <t>you are</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -1210,13 +1210,13 @@
     <t>does; performs; lit. constructs</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
-  </si>
-  <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
   </si>
   <si>
     <t>I was</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="421">
-  <si>
-    <t>Pāli1</t>
-  </si>
-  <si>
-    <t>POS</t>
-  </si>
-  <si>
-    <t>Meaning IN CONTEXT</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>class</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="427">
+  <si>
+    <t>pali_1</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>meaning_1</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>sbs_class</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
   </si>
   <si>
     <t>vinaya 1</t>
@@ -175,9 +178,6 @@
     <t>rāga 1</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>brāhmaṇa 2</t>
   </si>
   <si>
@@ -187,201 +187,201 @@
     <t>bhava 2</t>
   </si>
   <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
     <t>bāla 2</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>mallā</t>
   </si>
   <si>
@@ -544,39 +544,42 @@
     <t>asi 2.1</t>
   </si>
   <si>
+    <t>āmantesi</t>
+  </si>
+  <si>
+    <t>hotha</t>
+  </si>
+  <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>apucchi</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>āmantesi</t>
-  </si>
-  <si>
-    <t>hotha</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
-    <t>apucchi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -613,15 +616,15 @@
     <t>byākāsi 1</t>
   </si>
   <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
     <t>āsi 1.1</t>
   </si>
   <si>
+    <t>adj</t>
+  </si>
+  <si>
     <t>masc</t>
   </si>
   <si>
@@ -634,6 +637,12 @@
     <t>aor</t>
   </si>
   <si>
+    <t>fem</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
@@ -778,9 +787,6 @@
     <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>arahant; enlightened being; saint; paragon</t>
   </si>
   <si>
@@ -790,201 +796,201 @@
     <t>being; becoming; existence</t>
   </si>
   <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>name of the people of Malla; Mallans; lit. wrestlers</t>
   </si>
   <si>
@@ -1147,39 +1153,42 @@
     <t>you are</t>
   </si>
   <si>
+    <t>addressed; said (to); advised</t>
+  </si>
+  <si>
+    <t>may you all be!; I pray you all may be!</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>asked; enquired</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>addressed; said (to); advised</t>
-  </si>
-  <si>
-    <t>may you all be!; I pray you all may be!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
-    <t>asked; enquired</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -1216,18 +1225,21 @@
     <t>answered; replied; lit. made distinct</t>
   </si>
   <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
     <t>was</t>
   </si>
   <si>
+    <t>a-adj</t>
+  </si>
+  <si>
     <t>a-masc</t>
   </si>
   <si>
+    <t>a-masc-east</t>
+  </si>
+  <si>
     <t>a-masc-pl</t>
   </si>
   <si>
@@ -1253,6 +1265,12 @@
   </si>
   <si>
     <t>i-aor</t>
+  </si>
+  <si>
+    <t>i-aor-isuṃ</t>
+  </si>
+  <si>
+    <t>i-fem</t>
   </si>
   <si>
     <t>i-masc</t>
@@ -1665,13 +1683,13 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1679,16 +1697,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1696,16 +1714,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1713,16 +1731,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1730,16 +1748,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1747,16 +1765,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1764,16 +1782,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1781,16 +1799,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1798,16 +1816,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1815,16 +1833,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1832,16 +1850,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1849,16 +1867,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1866,16 +1884,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E14" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1883,16 +1901,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E15" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1900,16 +1918,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E16" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1917,16 +1935,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1934,16 +1952,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1951,16 +1969,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E19" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1968,16 +1986,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E20" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1985,16 +2003,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E21" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2002,16 +2020,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2019,16 +2037,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E23" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2036,16 +2054,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E24" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2053,16 +2071,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E25" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2070,16 +2088,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E26" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2087,16 +2105,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E27" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2104,16 +2122,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E28" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2121,16 +2139,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E29" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2138,16 +2156,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2155,16 +2173,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E31" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2172,16 +2190,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E32" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2189,16 +2207,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E33" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2206,16 +2224,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E34" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2223,16 +2241,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E35" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2240,16 +2258,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E36" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2257,16 +2275,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2274,16 +2292,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E38" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2291,16 +2309,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E39" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2308,16 +2326,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E40" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2325,16 +2343,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E41" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2342,16 +2360,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E42" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2359,16 +2377,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E43" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2376,16 +2394,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E44" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2393,16 +2411,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E45" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2410,16 +2428,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E46" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2427,16 +2445,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E47" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2444,16 +2462,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E48" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2461,16 +2479,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E49" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2478,16 +2496,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E50" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2495,16 +2513,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E51" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2512,16 +2530,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E52" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2529,16 +2547,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E53" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2546,16 +2564,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E54" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2563,16 +2581,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E55" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2580,16 +2598,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E56" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2597,16 +2615,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E57" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2614,16 +2632,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E58" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2631,16 +2649,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2648,16 +2666,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2665,16 +2683,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E61" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2682,16 +2700,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E62" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2699,16 +2717,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E63" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2716,16 +2734,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2733,16 +2751,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E65" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2750,16 +2768,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E66" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2767,16 +2785,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E67" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2784,16 +2802,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E68" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2801,16 +2819,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E69" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2818,16 +2836,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E70" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2835,16 +2853,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E71" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2852,16 +2870,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E72" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2869,16 +2887,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E73" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2886,16 +2904,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E74" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2903,16 +2921,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E75" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2920,16 +2938,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E76" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2937,16 +2955,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E77" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2954,16 +2972,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E78" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2971,16 +2989,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C79" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E79" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2988,16 +3006,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E80" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3005,16 +3023,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E81" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3022,16 +3040,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3039,16 +3057,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E83" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3056,16 +3074,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E84" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3073,16 +3091,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E85" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3090,16 +3108,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E86" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3107,16 +3125,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E87" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3124,16 +3142,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E88" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3141,16 +3159,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E89" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3158,16 +3176,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E90" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3175,16 +3193,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E91" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3192,16 +3210,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E92" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3209,16 +3227,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E93" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3226,16 +3244,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E94" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3243,16 +3261,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3260,16 +3278,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E96" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3277,16 +3295,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E97" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3294,16 +3312,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E98" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3311,16 +3329,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E99" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3328,16 +3346,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E100" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3345,16 +3363,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E101" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3362,16 +3380,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D102" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E102" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3379,16 +3397,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D103" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E103" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3396,16 +3414,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3413,16 +3431,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E105" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3430,16 +3448,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E106" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3447,16 +3465,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E107" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3464,16 +3482,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D108" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E108" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3481,16 +3499,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D109" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E109" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3498,16 +3516,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C110" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D110" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E110" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3515,16 +3533,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C111" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E111" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3532,16 +3550,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E112" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3549,16 +3567,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3566,16 +3584,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E114" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3583,16 +3601,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E115" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3600,16 +3618,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E116" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3617,16 +3635,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C117" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E117" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3634,16 +3652,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E118" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3651,16 +3669,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C119" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D119" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E119" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3668,16 +3686,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C120" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E120" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3685,16 +3703,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C121" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D121" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E121" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3702,16 +3720,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D122" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E122" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3719,16 +3737,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D123" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E123" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3736,16 +3754,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D124" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E124" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3753,16 +3771,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E125" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3770,16 +3788,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E126" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3787,16 +3805,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E127" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3804,16 +3822,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C128" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E128" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3821,16 +3839,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D129" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E129" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3838,16 +3856,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D130" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E130" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3855,16 +3873,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D131" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E131" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3872,16 +3890,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D132" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E132" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3889,16 +3907,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D133" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E133" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3906,16 +3924,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D134" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E134" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3923,16 +3941,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D135" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E135" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3940,16 +3958,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D136" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E136" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3957,16 +3975,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E137" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3974,16 +3992,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D138" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E138" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3991,16 +4009,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D139" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E139" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4008,16 +4026,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D140" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E140" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4025,16 +4043,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D141" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E141" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4042,16 +4060,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D142" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E142" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4059,16 +4077,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D143" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E143" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4076,16 +4094,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D144" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E144" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4093,16 +4111,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C145" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D145" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E145" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4110,16 +4128,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E146" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4127,16 +4145,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D147" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E147" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4144,16 +4162,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E148" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4161,16 +4179,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D149" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E149" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4178,16 +4196,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C150" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D150" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E150" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4195,16 +4213,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E151" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4212,16 +4230,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E152" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4229,16 +4247,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D153" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E153" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4246,16 +4264,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D154" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E154" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4263,16 +4281,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D155" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E155" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4280,16 +4298,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D156" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E156" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4297,16 +4315,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D157" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E157" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4314,16 +4332,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D158" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E158" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4331,16 +4349,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D159" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E159" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4348,16 +4366,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C160" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D160" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E160" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4365,16 +4383,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C161" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D161" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E161" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4382,16 +4400,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D162" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E162" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4399,16 +4417,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D163" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E163" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4416,16 +4434,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C164" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D164" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E164" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4433,16 +4451,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C165" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D165" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E165" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4450,16 +4468,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C166" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D166" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E166" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4467,16 +4485,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C167" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D167" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E167" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4484,16 +4502,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D168" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E168" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4501,16 +4519,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C169" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D169" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E169" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4518,16 +4536,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C170" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D170" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E170" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4535,16 +4553,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D171" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4552,16 +4570,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D172" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E172" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4569,16 +4587,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D173" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E173" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4589,13 +4607,13 @@
         <v>205</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D174" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E174" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4606,13 +4624,13 @@
         <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D175" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E175" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4620,16 +4638,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C176" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D176" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E176" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4637,16 +4655,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D177" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E177" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4654,16 +4672,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C178" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D178" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E178" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4671,16 +4689,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D179" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E179" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4688,16 +4706,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D180" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E180" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4705,16 +4723,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D181" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E181" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4722,16 +4740,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D182" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E182" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4739,16 +4757,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D183" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E183" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4756,16 +4774,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C184" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E184" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4773,16 +4791,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C185" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D185" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E185" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4790,16 +4808,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D186" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E186" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4807,16 +4825,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E187" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4824,16 +4842,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C188" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D188" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E188" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4841,16 +4859,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C189" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D189" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E189" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4858,16 +4876,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C190" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D190" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E190" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4878,13 +4896,13 @@
         <v>203</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D191" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E191" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4895,13 +4913,13 @@
         <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D192" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E192" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4909,16 +4927,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C193" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D193" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E193" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4926,16 +4944,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C194" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D194" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E194" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4943,16 +4961,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C195" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E195" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4960,16 +4978,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C196" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D196" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E196" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4977,16 +4995,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D197" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E197" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4994,16 +5012,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D198" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E198" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="425">
   <si>
     <t>pali_1</t>
   </si>
@@ -31,15 +31,24 @@
     <t>sbs_class</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
     <t>cora</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -49,336 +58,327 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
   </si>
   <si>
     <t>māsa 2.1</t>
   </si>
   <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>bāla 2</t>
   </si>
   <si>
@@ -391,84 +391,84 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
-    <t>vadati 1</t>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
   </si>
   <si>
     <t>uddisati 1</t>
   </si>
   <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
   </si>
   <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -478,99 +478,99 @@
     <t>ehi</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>suṇāti 1</t>
   </si>
   <si>
     <t>suṇātu</t>
   </si>
   <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>paṭibhāti</t>
   </si>
   <si>
     <t>paṭijānāti 3</t>
   </si>
   <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
     <t>ājānāti 1</t>
   </si>
   <si>
     <t>paggaṇhāti 2</t>
   </si>
   <si>
-    <t>paṭiggaṇhāti 1</t>
+    <t>kassaka</t>
   </si>
   <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kassaka</t>
-  </si>
-  <si>
     <t>paṭipajjati 2</t>
   </si>
   <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>anuyuñjati 2</t>
   </si>
   <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>amha 1.1</t>
-  </si>
-  <si>
-    <t>asi 2.1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hoti 1</t>
+    <t>sammodi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
   </si>
   <si>
     <t>paccassosi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -580,24 +580,24 @@
     <t>santi 3</t>
   </si>
   <si>
+    <t>samādhi 1</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>sāli</t>
+  </si>
+  <si>
     <t>muni 1</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
     <t>aggi</t>
   </si>
   <si>
-    <t>gahapati</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
-    <t>samādhi 1</t>
-  </si>
-  <si>
     <t>byādhi</t>
   </si>
   <si>
@@ -622,9 +622,6 @@
     <t>āsi 1.1</t>
   </si>
   <si>
-    <t>adj</t>
-  </si>
-  <si>
     <t>masc</t>
   </si>
   <si>
@@ -640,15 +637,24 @@
     <t>fem</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>thief; robber</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -658,336 +664,327 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>son; child</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
     <t>bean</t>
   </si>
   <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>fool; idiot; immature person</t>
   </si>
   <si>
@@ -1000,84 +997,84 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
   </si>
   <si>
     <t>recites; chants; lit. points up</t>
   </si>
   <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -1087,99 +1084,99 @@
     <t>come!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>hears</t>
   </si>
   <si>
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>comes to mind; occurs (to)</t>
   </si>
   <si>
     <t>makes the claim (of); claims (to be)</t>
   </si>
   <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
     <t>knows; understands</t>
   </si>
   <si>
     <t>holds up; raises up</t>
   </si>
   <si>
-    <t>takes; accepts; receives</t>
+    <t>farmer; ploughman</t>
   </si>
   <si>
     <t>trader; dealer</t>
   </si>
   <si>
-    <t>farmer; ploughman</t>
-  </si>
-  <si>
     <t>practices; follows a course of action; follows a method</t>
   </si>
   <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>indulges (in); is addicted (to); lit. yokes near</t>
   </si>
   <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
-    <t>is</t>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
   </si>
   <si>
     <t>replied (to); agreed (with)</t>
   </si>
   <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -1189,24 +1186,24 @@
     <t>virtuous woman; good woman</t>
   </si>
   <si>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>fine rice</t>
+  </si>
+  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
-    <t>fine rice</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
-  </si>
-  <si>
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
@@ -1229,9 +1226,6 @@
   </si>
   <si>
     <t>was</t>
-  </si>
-  <si>
-    <t>a-adj</t>
   </si>
   <si>
     <t>a-masc</t>
@@ -1683,13 +1677,13 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1697,16 +1691,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1714,16 +1708,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1731,16 +1725,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1748,16 +1742,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1765,16 +1759,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1782,16 +1776,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1799,16 +1793,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1816,16 +1810,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1833,16 +1827,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1850,16 +1844,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1867,16 +1861,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1884,16 +1878,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1901,16 +1895,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1918,16 +1912,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1935,16 +1929,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1952,16 +1946,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1969,16 +1963,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1986,16 +1980,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2003,16 +1997,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E21" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2020,16 +2014,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2037,16 +2031,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2054,16 +2048,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2071,16 +2065,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2088,16 +2082,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2105,16 +2099,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2122,16 +2116,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2139,16 +2133,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2156,16 +2150,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2173,16 +2167,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E31" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2190,16 +2184,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D32" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E32" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2207,16 +2201,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2224,16 +2218,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2241,16 +2235,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2258,16 +2252,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2275,16 +2269,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2292,16 +2286,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2309,16 +2303,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2326,16 +2320,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2343,16 +2337,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E41" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2360,16 +2354,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2377,16 +2371,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2394,16 +2388,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2411,16 +2405,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E45" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2428,16 +2422,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2445,16 +2439,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2462,16 +2456,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E48" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2479,16 +2473,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E49" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2496,16 +2490,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E50" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2513,16 +2507,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2530,16 +2524,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D52" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E52" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2547,16 +2541,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E53" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2564,16 +2558,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D54" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2581,16 +2575,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2598,16 +2592,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D56" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2615,16 +2609,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E57" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2632,16 +2626,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2649,16 +2643,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2666,16 +2660,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D60" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E60" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2683,16 +2677,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D61" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2700,16 +2694,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E62" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2717,16 +2711,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D63" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E63" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2734,16 +2728,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D64" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E64" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2751,16 +2745,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E65" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2768,16 +2762,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2785,16 +2779,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2802,16 +2796,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2819,16 +2813,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2836,16 +2830,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D70" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E70" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2853,16 +2847,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D71" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2870,16 +2864,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E72" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2887,16 +2881,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D73" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E73" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2904,16 +2898,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E74" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2921,16 +2915,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D75" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E75" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2938,16 +2932,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E76" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2955,16 +2949,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2972,16 +2966,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2989,16 +2983,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D79" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E79" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3006,16 +3000,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E80" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3023,16 +3017,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E81" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3040,16 +3034,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3057,16 +3051,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D83" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3074,16 +3068,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E84" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3091,16 +3085,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D85" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E85" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3108,16 +3102,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E86" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3125,16 +3119,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E87" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3142,16 +3136,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E88" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3159,16 +3153,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E89" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3176,16 +3170,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E90" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3193,16 +3187,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E91" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3210,16 +3204,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E92" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3227,16 +3221,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3244,16 +3238,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E94" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3261,16 +3255,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E95" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3278,16 +3272,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E96" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3295,16 +3289,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E97" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3312,16 +3306,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D98" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E98" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3329,16 +3323,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3346,16 +3340,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E100" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3363,16 +3357,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E101" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3380,16 +3374,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D102" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E102" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3397,16 +3391,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3414,16 +3408,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E104" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3431,16 +3425,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E105" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3448,16 +3442,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D106" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E106" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3465,16 +3459,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D107" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E107" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3482,16 +3476,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D108" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E108" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3499,16 +3493,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E109" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3516,16 +3510,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C110" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E110" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3533,16 +3527,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E111" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3550,16 +3544,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D112" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E112" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3567,16 +3561,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E113" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3584,16 +3578,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E114" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3601,16 +3595,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E115" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3618,16 +3612,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E116" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3635,16 +3629,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E117" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3652,16 +3646,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D118" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E118" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3669,16 +3663,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E119" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3686,16 +3680,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E120" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3703,16 +3697,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E121" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3720,16 +3714,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C122" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D122" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E122" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3737,16 +3731,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C123" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E123" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3754,16 +3748,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D124" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E124" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3771,16 +3765,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D125" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E125" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3788,16 +3782,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E126" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3805,16 +3799,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E127" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3822,16 +3816,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D128" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E128" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3839,16 +3833,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D129" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E129" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3856,16 +3850,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D130" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E130" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3873,16 +3867,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E131" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3890,16 +3884,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D132" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E132" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3907,16 +3901,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D133" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E133" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3924,16 +3918,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D134" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E134" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3941,16 +3935,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D135" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E135" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3958,16 +3952,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D136" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E136" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3975,16 +3969,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E137" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3992,16 +3986,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D138" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E138" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4009,16 +4003,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D139" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E139" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4026,16 +4020,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D140" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E140" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4043,16 +4037,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D141" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E141" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4060,16 +4054,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E142" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4077,16 +4071,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D143" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E143" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4094,16 +4088,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D144" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E144" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4111,16 +4105,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D145" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E145" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4128,16 +4122,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E146" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4145,16 +4139,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D147" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E147" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4162,16 +4156,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D148" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E148" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4179,16 +4173,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C149" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E149" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4196,16 +4190,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D150" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E150" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4213,16 +4207,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D151" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E151" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4230,16 +4224,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E152" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4250,13 +4244,13 @@
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E153" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4264,16 +4258,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D154" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E154" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4281,16 +4275,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D155" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E155" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4298,16 +4292,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D156" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E156" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4315,16 +4309,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D157" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E157" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4332,16 +4326,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D158" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E158" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4349,16 +4343,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D159" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E159" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4366,16 +4360,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C160" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D160" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E160" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4383,16 +4377,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C161" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D161" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4400,16 +4394,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C162" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D162" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E162" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4417,16 +4411,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D163" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E163" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4434,16 +4428,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C164" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D164" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E164" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4451,16 +4445,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D165" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E165" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4468,16 +4462,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C166" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D166" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E166" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4485,16 +4479,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C167" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D167" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4502,16 +4496,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C168" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D168" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E168" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4519,16 +4513,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C169" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D169" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E169" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4536,16 +4530,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D170" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E170" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4553,16 +4547,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D171" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4570,16 +4564,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D172" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E172" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4587,16 +4581,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C173" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E173" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4604,16 +4598,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D174" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E174" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4624,13 +4618,13 @@
         <v>204</v>
       </c>
       <c r="C175" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D175" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E175" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4638,16 +4632,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D176" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E176" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4655,16 +4649,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D177" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E177" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4672,16 +4666,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C178" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D178" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E178" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4689,16 +4683,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D179" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E179" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4706,16 +4700,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E180" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4723,16 +4717,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D181" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E181" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4740,16 +4734,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D182" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E182" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4757,16 +4751,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D183" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E183" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4774,16 +4768,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C184" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D184" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E184" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4791,16 +4785,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D185" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E185" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4808,16 +4802,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D186" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E186" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4825,16 +4819,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D187" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E187" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4842,16 +4836,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D188" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E188" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4859,16 +4853,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C189" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D189" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E189" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4876,16 +4870,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C190" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D190" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E190" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4893,16 +4887,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D191" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E191" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4910,16 +4904,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D192" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E192" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4927,16 +4921,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D193" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E193" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4944,16 +4938,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C194" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D194" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E194" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4961,16 +4955,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D195" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E195" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4978,16 +4972,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E196" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4995,16 +4989,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E197" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5012,16 +5006,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D198" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E198" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -1153,7 +1153,7 @@
     <t>addressed; said (to); advised</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may you all be!; I pray you all may be!</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -553,24 +553,24 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -817,7 +817,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -1012,7 +1012,7 @@
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>remembers; recollects; bears in mind</t>
@@ -1159,22 +1159,22 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
   </si>
   <si>
     <t>asked; enquired</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -586,21 +586,21 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1192,19 +1192,19 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
-  </si>
-  <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
     <t>does; acts; performs</t>

--- a/pali-class/vocab/vocab-class4.xlsx
+++ b/pali-class/vocab/vocab-class4.xlsx
@@ -91,267 +91,267 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -697,265 +697,265 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
   </si>
   <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
